--- a/Test Execution/Nithya/Test Case- Lab & General Billing_copy.xlsx
+++ b/Test Execution/Nithya/Test Case- Lab & General Billing_copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mediware\Mediware-Repository\Test Execution\Nithya\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20982476-38D1-4E4A-965D-52BF36007752}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99074527-978A-4CBF-A62C-99EEA71959A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2570" uniqueCount="625">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1177,12 +1177,6 @@
     <t>Verify whether use is not able to verify credit/debit card with invalid cvv</t>
   </si>
   <si>
-    <t xml:space="preserve">Enter invalid cvv and other mandatory details&gt;&gt;Click on save </t>
-  </si>
-  <si>
-    <t>A message "Enter Valid CVV" should be displayed</t>
-  </si>
-  <si>
     <t>MED_LGB_TC_035</t>
   </si>
   <si>
@@ -2276,10 +2270,6 @@
     <t>Bill No:000282</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Following fields should be populated
 1.Patient Id
 2.Patient Name
@@ -2548,12 +2538,183 @@
   <si>
     <t>EQ1-I346</t>
   </si>
+  <si>
+    <t>User is not able to cancel pending request of a patient</t>
+  </si>
+  <si>
+    <t>EQ1-I358</t>
+  </si>
+  <si>
+    <t>Searching by entering patient No in search field is not showing properly</t>
+  </si>
+  <si>
+    <t>EQ1-I361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient refund  is not listed out </t>
+  </si>
+  <si>
+    <t>EQ1-I363</t>
+  </si>
+  <si>
+    <t>EQ1-I367</t>
+  </si>
+  <si>
+    <t>Canceled/Invalid No message pop-up is showing</t>
+  </si>
+  <si>
+    <t>EQ1-I372</t>
+  </si>
+  <si>
+    <t>EQ1-I385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter invalid card# and other mandatory details&gt;&gt;Click on save </t>
+  </si>
+  <si>
+    <t>A message "Enter Valid Card#" should be displayed</t>
+  </si>
+  <si>
+    <t>Date is not mandatory.Always take current date so, patient data is not listing Defect ID:EQ1-I338</t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_074</t>
+  </si>
+  <si>
+    <t>Verify Summary Information table under Billing Search</t>
+  </si>
+  <si>
+    <t>http://mediwarecloud.com</t>
+  </si>
+  <si>
+    <t>Navigate to Billing search tab</t>
+  </si>
+  <si>
+    <t>Billing serach page should be displayed</t>
+  </si>
+  <si>
+    <t>Verify data displayed in Summary Information table on selecting different dates from date picker</t>
+  </si>
+  <si>
+    <t>Summary Information table should contian:
+-Today's Bills
+-Op Bills
+-IP Bills
+-Credit Bills
+-Cash Bills
+-Complimentary Bills
+-Pending Request
+-Emergency Bills</t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_075</t>
+  </si>
+  <si>
+    <t>Verify on clicking Billed status, user gets navigated to lab and general billing page</t>
+  </si>
+  <si>
+    <t>Precondition:The Patient should be consulted and Billed</t>
+  </si>
+  <si>
+    <t>#NH00000596 - Arjun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search for a Billed  patient on entering data in fields upon clciking show option </t>
+  </si>
+  <si>
+    <t>patient should get listed</t>
+  </si>
+  <si>
+    <t>Once patient is displayed under Todays Bills, click on Billed status</t>
+  </si>
+  <si>
+    <t>lab and General Billing page should be displayed</t>
+  </si>
+  <si>
+    <t>Verify page gets navigated to lab and General Billing page</t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_076</t>
+  </si>
+  <si>
+    <t>Verify Editing Todays Bills</t>
+  </si>
+  <si>
+    <t>Precondition:The Patient should be consulted and Billed
+Navigate to Application Selector&gt;&gt;Select Lab and General Billing</t>
+  </si>
+  <si>
+    <t>Once patient is displayed under Todays Bills, click on Edit option</t>
+  </si>
+  <si>
+    <t>Make changes and save it for verification</t>
+  </si>
+  <si>
+    <t>Edited fields should be saved</t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_077</t>
+  </si>
+  <si>
+    <t>Verify Linked patients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precondition:The Patient should be consulted and Billed
+</t>
+  </si>
+  <si>
+    <t>Click on Linked patients option and verify result</t>
+  </si>
+  <si>
+    <t>Linked patients should be displayed</t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_078</t>
+  </si>
+  <si>
+    <t>Verify Summary Information table under dashboard of Todays Bill summary</t>
+  </si>
+  <si>
+    <t>Navigate to dashboard tab</t>
+  </si>
+  <si>
+    <t>Dashboard page should be displayed</t>
+  </si>
+  <si>
+    <t>Summary Information table should contain:
+-Today's Bills
+-Op Bills
+-IP Bills
+-Credit Bills
+-Cash Bills
+-Complimentary Bills
+-Pending Request
+-Emergency Bills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search for a Billed  patient on entering data in fields upon clicking show option </t>
+  </si>
+  <si>
+    <t>Click on YES&gt;&gt;Click on Print</t>
+  </si>
+  <si>
+    <t>OP Credit Bill report page should be displayed. And Navigate to Printer page</t>
+  </si>
+  <si>
+    <t>While clicking on Print button it is not navigate to printer page</t>
+  </si>
+  <si>
+    <t>Mismatching the  count showing in Summary information and Total Bills Summary</t>
+  </si>
+  <si>
+    <t>EQ1-I392</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2620,13 +2781,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2685,7 +2839,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2768,11 +2922,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2780,6 +2934,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3095,11 +3250,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S736"/>
+  <dimension ref="A1:S747"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A678" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L680" sqref="L680"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A741" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N747" sqref="N747"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3143,7 +3298,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>4</v>
@@ -3190,7 +3345,7 @@
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I2" s="20" t="s">
         <v>41</v>
@@ -3204,14 +3359,14 @@
       </c>
       <c r="P2" s="12">
         <f>COUNTA(A:A)-1</f>
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="R2" s="13" t="s">
         <v>12</v>
       </c>
       <c r="S2" s="14">
         <f>COUNTIF(L:L,"Pass")</f>
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="10" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3229,10 +3384,10 @@
         <v>43</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="5"/>
@@ -3243,14 +3398,14 @@
       </c>
       <c r="P3" s="12">
         <f>COUNTA(L:L)-1</f>
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>14</v>
       </c>
       <c r="S3" s="14">
         <f>COUNTIF(L:L,"Fail")</f>
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -3268,7 +3423,7 @@
         <v>45</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="8"/>
@@ -3298,7 +3453,7 @@
         <v>47</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>48</v>
@@ -3310,7 +3465,7 @@
       </c>
       <c r="S5" s="14">
         <f>COUNTA(M:M)-1</f>
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="60" x14ac:dyDescent="0.25">
@@ -3318,13 +3473,13 @@
         <v>5</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>50</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>51</v>
@@ -3343,7 +3498,7 @@
         <v>53</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="9"/>
@@ -3359,7 +3514,7 @@
         <v>55</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="9"/>
@@ -3375,7 +3530,7 @@
         <v>50</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>57</v>
@@ -3394,7 +3549,7 @@
         <v>59</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="9"/>
@@ -3404,13 +3559,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="9"/>
@@ -3420,16 +3575,16 @@
         <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L12" s="9" t="s">
         <v>12</v>
@@ -3459,7 +3614,7 @@
         <v>40</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>62</v>
@@ -3478,7 +3633,7 @@
         <v>43</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="9"/>
@@ -3494,7 +3649,7 @@
         <v>45</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="9"/>
@@ -3510,7 +3665,7 @@
         <v>47</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>48</v>
@@ -3523,13 +3678,13 @@
         <v>5</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>50</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>51</v>
@@ -3548,7 +3703,7 @@
         <v>64</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="9"/>
@@ -3564,7 +3719,7 @@
         <v>66</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="9"/>
@@ -3580,7 +3735,7 @@
         <v>50</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>57</v>
@@ -3593,29 +3748,29 @@
         <v>9</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>60</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F23" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L23" s="9" t="s">
         <v>12</v>
@@ -3642,7 +3797,7 @@
         <v>40</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>62</v>
@@ -3661,7 +3816,7 @@
         <v>43</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="9"/>
@@ -3677,7 +3832,7 @@
         <v>45</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="9"/>
@@ -3693,7 +3848,7 @@
         <v>47</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>48</v>
@@ -3712,7 +3867,7 @@
         <v>69</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="9"/>
@@ -3728,13 +3883,13 @@
         <v>60</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L30" s="9" t="s">
         <v>12</v>
@@ -3742,7 +3897,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H31" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K31" s="5"/>
       <c r="L31" s="9"/>
@@ -3764,7 +3919,7 @@
         <v>40</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>62</v>
@@ -3783,7 +3938,7 @@
         <v>43</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="9"/>
@@ -3799,7 +3954,7 @@
         <v>45</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="9"/>
@@ -3815,7 +3970,7 @@
         <v>47</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>48</v>
@@ -3834,7 +3989,7 @@
         <v>69</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K36" s="5"/>
       <c r="L36" s="9"/>
@@ -3850,7 +4005,7 @@
         <v>64</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K37" s="5"/>
       <c r="L37" s="9"/>
@@ -3866,7 +4021,7 @@
         <v>66</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="9"/>
@@ -3882,7 +4037,7 @@
         <v>50</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>57</v>
@@ -3901,7 +4056,7 @@
         <v>73</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="9"/>
@@ -3914,13 +4069,13 @@
         <v>74</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="9"/>
@@ -3936,7 +4091,7 @@
         <v>60</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K42" s="5"/>
       <c r="L42" s="9"/>
@@ -3946,16 +4101,16 @@
         <v>12</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L43" s="9" t="s">
         <v>12</v>
@@ -3983,7 +4138,7 @@
         <v>40</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>62</v>
@@ -4002,7 +4157,7 @@
         <v>43</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="K46" s="5"/>
       <c r="L46" s="9"/>
@@ -4018,7 +4173,7 @@
         <v>45</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="K47" s="5"/>
       <c r="L47" s="9"/>
@@ -4034,7 +4189,7 @@
         <v>77</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="K48" s="5"/>
       <c r="L48" s="9"/>
@@ -4050,7 +4205,7 @@
         <v>69</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="K49" s="5"/>
       <c r="L49" s="9"/>
@@ -4066,7 +4221,7 @@
         <v>64</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="K50" s="5"/>
       <c r="L50" s="9"/>
@@ -4076,13 +4231,13 @@
         <v>7</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>66</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="K51" s="5"/>
       <c r="L51" s="9"/>
@@ -4098,7 +4253,7 @@
         <v>50</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="I52" s="7" t="s">
         <v>57</v>
@@ -4117,7 +4272,7 @@
         <v>73</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="K53" s="5"/>
       <c r="L53" s="9"/>
@@ -4133,7 +4288,7 @@
         <v>79</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="I54" s="7" t="s">
         <v>80</v>
@@ -4152,7 +4307,7 @@
         <v>82</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="K55" s="5"/>
       <c r="L55" s="9"/>
@@ -4168,7 +4323,7 @@
         <v>84</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="K56" s="5"/>
       <c r="L56" s="9"/>
@@ -4181,13 +4336,13 @@
         <v>70</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L57" s="9" t="s">
         <v>12</v>
@@ -4215,7 +4370,7 @@
         <v>40</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>62</v>
@@ -4234,7 +4389,7 @@
         <v>43</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="K60" s="5"/>
       <c r="L60" s="9"/>
@@ -4250,7 +4405,7 @@
         <v>45</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="K61" s="5"/>
       <c r="L61" s="9"/>
@@ -4266,7 +4421,7 @@
         <v>47</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="I62" s="7" t="s">
         <v>48</v>
@@ -4285,7 +4440,7 @@
         <v>50</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="I63" s="7" t="s">
         <v>51</v>
@@ -4304,7 +4459,7 @@
         <v>64</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="K64" s="5"/>
       <c r="L64" s="9"/>
@@ -4320,7 +4475,7 @@
         <v>66</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="K65" s="5"/>
       <c r="L65" s="9"/>
@@ -4330,13 +4485,13 @@
         <v>8</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>88</v>
@@ -4358,13 +4513,13 @@
         <v>57</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L67" s="9" t="s">
         <v>14</v>
       </c>
       <c r="M67" s="6" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -4431,7 +4586,7 @@
         <v>98</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I72" s="7" t="s">
         <v>62</v>
@@ -4450,7 +4605,7 @@
         <v>43</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K73" s="5"/>
       <c r="L73" s="9"/>
@@ -4466,7 +4621,7 @@
         <v>45</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K74" s="5"/>
       <c r="L74" s="9"/>
@@ -4482,7 +4637,7 @@
         <v>99</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I75" s="7" t="s">
         <v>48</v>
@@ -4501,7 +4656,7 @@
         <v>66</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K76" s="5"/>
       <c r="L76" s="9"/>
@@ -4517,7 +4672,7 @@
         <v>89</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I77" s="7" t="s">
         <v>57</v>
@@ -4536,7 +4691,7 @@
         <v>91</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K78" s="5"/>
       <c r="L78" s="9"/>
@@ -4552,7 +4707,7 @@
         <v>101</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K79" s="5"/>
       <c r="L79" s="9"/>
@@ -4562,16 +4717,16 @@
         <v>11</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K80" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L80" s="9" t="s">
         <v>12</v>
@@ -4598,7 +4753,7 @@
         <v>144</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I82" s="7" t="s">
         <v>62</v>
@@ -4617,7 +4772,7 @@
         <v>43</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I83" s="20"/>
       <c r="K83" s="5"/>
@@ -4634,7 +4789,7 @@
         <v>45</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K84" s="5"/>
       <c r="L84" s="9"/>
@@ -4650,7 +4805,7 @@
         <v>110</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K85" s="5"/>
       <c r="L85" s="9"/>
@@ -4666,7 +4821,7 @@
         <v>47</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I86" s="7" t="s">
         <v>48</v>
@@ -4685,7 +4840,7 @@
         <v>50</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I87" s="7" t="s">
         <v>51</v>
@@ -4704,7 +4859,7 @@
         <v>66</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K88" s="5"/>
       <c r="L88" s="9"/>
@@ -4720,7 +4875,7 @@
         <v>89</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I89" s="7" t="s">
         <v>57</v>
@@ -4739,7 +4894,7 @@
         <v>91</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K90" s="5"/>
       <c r="L90" s="9"/>
@@ -4755,7 +4910,7 @@
         <v>177</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K91" s="5"/>
       <c r="L91" s="9"/>
@@ -4765,13 +4920,13 @@
         <v>11</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I92" s="7" t="s">
         <v>105</v>
@@ -4790,10 +4945,10 @@
         <v>107</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K93" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L93" s="9" t="s">
         <v>12</v>
@@ -4820,7 +4975,7 @@
         <v>144</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I95" s="7" t="s">
         <v>62</v>
@@ -4839,7 +4994,7 @@
         <v>43</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I96" s="20"/>
       <c r="K96" s="5"/>
@@ -4856,7 +5011,7 @@
         <v>45</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K97" s="5"/>
       <c r="L97" s="9"/>
@@ -4872,7 +5027,7 @@
         <v>110</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I98" s="7" t="s">
         <v>111</v>
@@ -4891,7 +5046,7 @@
         <v>47</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I99" s="7" t="s">
         <v>48</v>
@@ -4910,7 +5065,7 @@
         <v>50</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I100" s="7" t="s">
         <v>51</v>
@@ -4929,7 +5084,7 @@
         <v>66</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K101" s="5"/>
       <c r="L101" s="9"/>
@@ -4945,7 +5100,7 @@
         <v>89</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I102" s="7" t="s">
         <v>57</v>
@@ -4964,7 +5119,7 @@
         <v>91</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K103" s="5"/>
       <c r="L103" s="9"/>
@@ -4974,13 +5129,13 @@
         <v>10</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G104" s="7" t="s">
         <v>112</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K104" s="5"/>
       <c r="L104" s="9"/>
@@ -4993,16 +5148,16 @@
         <v>113</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I105" s="7" t="s">
         <v>114</v>
       </c>
       <c r="K105" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L105" s="9" t="s">
         <v>12</v>
@@ -5033,7 +5188,7 @@
         <v>144</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I108" s="7" t="s">
         <v>62</v>
@@ -5052,7 +5207,7 @@
         <v>43</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I109" s="20"/>
       <c r="K109" s="5"/>
@@ -5069,7 +5224,7 @@
         <v>45</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K110" s="5"/>
       <c r="L110" s="9"/>
@@ -5085,7 +5240,7 @@
         <v>110</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I111" s="7" t="s">
         <v>111</v>
@@ -5104,7 +5259,7 @@
         <v>47</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I112" s="7" t="s">
         <v>48</v>
@@ -5123,7 +5278,7 @@
         <v>50</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I113" s="7" t="s">
         <v>51</v>
@@ -5142,7 +5297,7 @@
         <v>66</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K114" s="5"/>
       <c r="L114" s="9"/>
@@ -5158,7 +5313,7 @@
         <v>89</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I115" s="7" t="s">
         <v>57</v>
@@ -5177,7 +5332,7 @@
         <v>91</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K116" s="5"/>
       <c r="L116" s="9"/>
@@ -5193,7 +5348,7 @@
         <v>112</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K117" s="5"/>
       <c r="L117" s="9"/>
@@ -5209,7 +5364,7 @@
         <v>117</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I118" s="7" t="s">
         <v>118</v>
@@ -5228,19 +5383,19 @@
         <v>120</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="I119" s="7" t="s">
         <v>121</v>
       </c>
       <c r="K119" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L119" s="9" t="s">
         <v>14</v>
       </c>
       <c r="M119" s="6" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5251,7 +5406,7 @@
         <v>122</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="K120" s="5"/>
       <c r="L120" s="9"/>
@@ -5277,7 +5432,7 @@
         <v>144</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I122" s="7" t="s">
         <v>62</v>
@@ -5296,7 +5451,7 @@
         <v>43</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I123" s="20"/>
       <c r="K123" s="5"/>
@@ -5313,7 +5468,7 @@
         <v>45</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K124" s="5"/>
       <c r="L124" s="9"/>
@@ -5329,7 +5484,7 @@
         <v>110</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I125" s="7" t="s">
         <v>111</v>
@@ -5348,7 +5503,7 @@
         <v>47</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I126" s="7" t="s">
         <v>48</v>
@@ -5367,7 +5522,7 @@
         <v>50</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I127" s="7" t="s">
         <v>51</v>
@@ -5386,12 +5541,12 @@
         <v>66</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K128" s="5"/>
       <c r="L128" s="9"/>
     </row>
-    <row r="129" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E129" s="7">
         <v>8</v>
       </c>
@@ -5402,7 +5557,7 @@
         <v>89</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I129" s="7" t="s">
         <v>57</v>
@@ -5410,7 +5565,7 @@
       <c r="K129" s="5"/>
       <c r="L129" s="9"/>
     </row>
-    <row r="130" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E130" s="7">
         <v>9</v>
       </c>
@@ -5421,12 +5576,12 @@
         <v>91</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K130" s="5"/>
       <c r="L130" s="9"/>
     </row>
-    <row r="131" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E131" s="7">
         <v>10</v>
       </c>
@@ -5437,12 +5592,12 @@
         <v>112</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K131" s="5"/>
       <c r="L131" s="9"/>
     </row>
-    <row r="132" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E132" s="7">
         <v>11</v>
       </c>
@@ -5453,7 +5608,7 @@
         <v>125</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I132" s="7" t="s">
         <v>126</v>
@@ -5461,7 +5616,7 @@
       <c r="K132" s="5"/>
       <c r="L132" s="9"/>
     </row>
-    <row r="133" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E133" s="7">
         <v>12</v>
       </c>
@@ -5472,22 +5627,22 @@
         <v>120</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="I133" s="7" t="s">
         <v>159</v>
       </c>
+      <c r="J133" s="29" t="s">
+        <v>553</v>
+      </c>
       <c r="K133" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L133" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="M133" s="6" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E134" s="7">
         <v>13</v>
       </c>
@@ -5495,16 +5650,16 @@
         <v>122</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="K134" s="5"/>
       <c r="L134" s="9"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K135" s="5"/>
       <c r="L135" s="9"/>
     </row>
-    <row r="136" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>29</v>
       </c>
@@ -5521,7 +5676,7 @@
         <v>144</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I136" s="7" t="s">
         <v>62</v>
@@ -5529,7 +5684,7 @@
       <c r="K136" s="5"/>
       <c r="L136" s="9"/>
     </row>
-    <row r="137" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E137" s="7">
         <v>2</v>
       </c>
@@ -5540,13 +5695,13 @@
         <v>43</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I137" s="20"/>
       <c r="K137" s="5"/>
       <c r="L137" s="9"/>
     </row>
-    <row r="138" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E138" s="7">
         <v>3</v>
       </c>
@@ -5557,12 +5712,12 @@
         <v>45</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K138" s="5"/>
       <c r="L138" s="9"/>
     </row>
-    <row r="139" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E139" s="7">
         <v>4</v>
       </c>
@@ -5573,7 +5728,7 @@
         <v>110</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I139" s="7" t="s">
         <v>111</v>
@@ -5581,7 +5736,7 @@
       <c r="K139" s="5"/>
       <c r="L139" s="9"/>
     </row>
-    <row r="140" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E140" s="7">
         <v>5</v>
       </c>
@@ -5592,7 +5747,7 @@
         <v>47</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I140" s="7" t="s">
         <v>48</v>
@@ -5600,7 +5755,7 @@
       <c r="K140" s="5"/>
       <c r="L140" s="9"/>
     </row>
-    <row r="141" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E141" s="7">
         <v>6</v>
       </c>
@@ -5611,7 +5766,7 @@
         <v>50</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I141" s="7" t="s">
         <v>51</v>
@@ -5619,7 +5774,7 @@
       <c r="K141" s="5"/>
       <c r="L141" s="9"/>
     </row>
-    <row r="142" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E142" s="7">
         <v>7</v>
       </c>
@@ -5630,12 +5785,12 @@
         <v>66</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K142" s="5"/>
       <c r="L142" s="9"/>
     </row>
-    <row r="143" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E143" s="7">
         <v>8</v>
       </c>
@@ -5646,7 +5801,7 @@
         <v>89</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I143" s="7" t="s">
         <v>57</v>
@@ -5654,7 +5809,7 @@
       <c r="K143" s="5"/>
       <c r="L143" s="9"/>
     </row>
-    <row r="144" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E144" s="7">
         <v>9</v>
       </c>
@@ -5665,7 +5820,7 @@
         <v>91</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K144" s="5"/>
       <c r="L144" s="9"/>
@@ -5681,7 +5836,7 @@
         <v>112</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K145" s="5"/>
       <c r="L145" s="9"/>
@@ -5697,7 +5852,7 @@
         <v>120</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I146" s="7" t="s">
         <v>129</v>
@@ -5713,13 +5868,13 @@
         <v>122</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K147" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L147" s="9" t="s">
         <v>12</v>
@@ -5746,7 +5901,7 @@
         <v>144</v>
       </c>
       <c r="H149" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I149" s="7" t="s">
         <v>62</v>
@@ -5765,7 +5920,7 @@
         <v>43</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I150" s="20"/>
       <c r="K150" s="5"/>
@@ -5782,7 +5937,7 @@
         <v>45</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K151" s="5"/>
       <c r="L151" s="9"/>
@@ -5798,7 +5953,7 @@
         <v>110</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I152" s="7" t="s">
         <v>111</v>
@@ -5817,7 +5972,7 @@
         <v>47</v>
       </c>
       <c r="H153" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I153" s="7" t="s">
         <v>48</v>
@@ -5836,7 +5991,7 @@
         <v>50</v>
       </c>
       <c r="H154" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I154" s="7" t="s">
         <v>51</v>
@@ -5855,7 +6010,7 @@
         <v>66</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K155" s="5"/>
       <c r="L155" s="9"/>
@@ -5871,7 +6026,7 @@
         <v>89</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I156" s="7" t="s">
         <v>57</v>
@@ -5890,7 +6045,7 @@
         <v>91</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K157" s="5"/>
       <c r="L157" s="9"/>
@@ -5906,7 +6061,7 @@
         <v>112</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K158" s="5"/>
       <c r="L158" s="9"/>
@@ -5919,10 +6074,10 @@
         <v>113</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I159" s="7" t="s">
         <v>131</v>
@@ -5941,7 +6096,7 @@
         <v>120</v>
       </c>
       <c r="H160" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I160" s="7" t="s">
         <v>158</v>
@@ -5957,13 +6112,13 @@
         <v>122</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K161" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L161" s="9" t="s">
         <v>12</v>
@@ -5990,7 +6145,7 @@
         <v>144</v>
       </c>
       <c r="H163" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I163" s="7" t="s">
         <v>62</v>
@@ -6009,7 +6164,7 @@
         <v>43</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I164" s="20"/>
       <c r="K164" s="5"/>
@@ -6026,7 +6181,7 @@
         <v>45</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K165" s="5"/>
       <c r="L165" s="9"/>
@@ -6042,7 +6197,7 @@
         <v>110</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I166" s="7" t="s">
         <v>111</v>
@@ -6061,7 +6216,7 @@
         <v>47</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I167" s="7" t="s">
         <v>48</v>
@@ -6080,7 +6235,7 @@
         <v>50</v>
       </c>
       <c r="H168" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I168" s="7" t="s">
         <v>51</v>
@@ -6099,7 +6254,7 @@
         <v>66</v>
       </c>
       <c r="H169" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K169" s="5"/>
       <c r="L169" s="9"/>
@@ -6115,7 +6270,7 @@
         <v>89</v>
       </c>
       <c r="H170" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I170" s="7" t="s">
         <v>57</v>
@@ -6134,7 +6289,7 @@
         <v>91</v>
       </c>
       <c r="H171" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K171" s="5"/>
       <c r="L171" s="9"/>
@@ -6150,7 +6305,7 @@
         <v>112</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K172" s="5"/>
       <c r="L172" s="9"/>
@@ -6163,10 +6318,10 @@
         <v>113</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I173" s="7" t="s">
         <v>131</v>
@@ -6185,7 +6340,7 @@
         <v>125</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I174" s="7" t="s">
         <v>126</v>
@@ -6204,7 +6359,7 @@
         <v>120</v>
       </c>
       <c r="H175" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I175" s="7" t="s">
         <v>157</v>
@@ -6220,19 +6375,19 @@
         <v>122</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="K176" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L176" s="9" t="s">
         <v>14</v>
       </c>
       <c r="M176" s="6" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
@@ -6256,7 +6411,7 @@
         <v>144</v>
       </c>
       <c r="H178" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I178" s="7" t="s">
         <v>62</v>
@@ -6275,7 +6430,7 @@
         <v>43</v>
       </c>
       <c r="H179" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I179" s="20"/>
       <c r="K179" s="5"/>
@@ -6292,7 +6447,7 @@
         <v>45</v>
       </c>
       <c r="H180" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K180" s="5"/>
       <c r="L180" s="9"/>
@@ -6308,7 +6463,7 @@
         <v>110</v>
       </c>
       <c r="H181" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I181" s="7" t="s">
         <v>111</v>
@@ -6327,7 +6482,7 @@
         <v>47</v>
       </c>
       <c r="H182" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I182" s="7" t="s">
         <v>48</v>
@@ -6346,7 +6501,7 @@
         <v>50</v>
       </c>
       <c r="H183" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I183" s="7" t="s">
         <v>51</v>
@@ -6365,7 +6520,7 @@
         <v>66</v>
       </c>
       <c r="H184" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K184" s="5"/>
       <c r="L184" s="9"/>
@@ -6381,7 +6536,7 @@
         <v>89</v>
       </c>
       <c r="H185" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I185" s="7" t="s">
         <v>57</v>
@@ -6400,7 +6555,7 @@
         <v>91</v>
       </c>
       <c r="H186" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K186" s="5"/>
       <c r="L186" s="9"/>
@@ -6416,7 +6571,7 @@
         <v>112</v>
       </c>
       <c r="H187" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K187" s="5"/>
       <c r="L187" s="9"/>
@@ -6429,7 +6584,7 @@
         <v>113</v>
       </c>
       <c r="H188" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I188" s="7" t="s">
         <v>131</v>
@@ -6448,7 +6603,7 @@
         <v>120</v>
       </c>
       <c r="H189" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I189" s="7" t="s">
         <v>155</v>
@@ -6464,13 +6619,13 @@
         <v>122</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H190" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K190" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L190" s="9" t="s">
         <v>12</v>
@@ -6497,7 +6652,7 @@
         <v>144</v>
       </c>
       <c r="H192" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I192" s="7" t="s">
         <v>62</v>
@@ -6505,7 +6660,7 @@
       <c r="K192" s="5"/>
       <c r="L192" s="9"/>
     </row>
-    <row r="193" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E193" s="7">
         <v>2</v>
       </c>
@@ -6516,13 +6671,13 @@
         <v>43</v>
       </c>
       <c r="H193" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I193" s="20"/>
       <c r="K193" s="5"/>
       <c r="L193" s="9"/>
     </row>
-    <row r="194" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="E194" s="7">
         <v>3</v>
       </c>
@@ -6533,12 +6688,12 @@
         <v>45</v>
       </c>
       <c r="H194" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K194" s="5"/>
       <c r="L194" s="9"/>
     </row>
-    <row r="195" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E195" s="7">
         <v>4</v>
       </c>
@@ -6549,7 +6704,7 @@
         <v>110</v>
       </c>
       <c r="H195" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I195" s="7" t="s">
         <v>111</v>
@@ -6557,7 +6712,7 @@
       <c r="K195" s="5"/>
       <c r="L195" s="9"/>
     </row>
-    <row r="196" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="E196" s="7">
         <v>5</v>
       </c>
@@ -6568,7 +6723,7 @@
         <v>47</v>
       </c>
       <c r="H196" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I196" s="7" t="s">
         <v>48</v>
@@ -6576,7 +6731,7 @@
       <c r="K196" s="5"/>
       <c r="L196" s="9"/>
     </row>
-    <row r="197" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="E197" s="7">
         <v>6</v>
       </c>
@@ -6587,7 +6742,7 @@
         <v>50</v>
       </c>
       <c r="H197" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I197" s="7" t="s">
         <v>51</v>
@@ -6595,7 +6750,7 @@
       <c r="K197" s="5"/>
       <c r="L197" s="9"/>
     </row>
-    <row r="198" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="E198" s="7">
         <v>7</v>
       </c>
@@ -6606,12 +6761,12 @@
         <v>66</v>
       </c>
       <c r="H198" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K198" s="5"/>
       <c r="L198" s="9"/>
     </row>
-    <row r="199" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="E199" s="7">
         <v>8</v>
       </c>
@@ -6622,7 +6777,7 @@
         <v>89</v>
       </c>
       <c r="H199" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I199" s="7" t="s">
         <v>57</v>
@@ -6630,7 +6785,7 @@
       <c r="K199" s="5"/>
       <c r="L199" s="9"/>
     </row>
-    <row r="200" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E200" s="7">
         <v>9</v>
       </c>
@@ -6641,12 +6796,12 @@
         <v>91</v>
       </c>
       <c r="H200" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K200" s="5"/>
       <c r="L200" s="9"/>
     </row>
-    <row r="201" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E201" s="7">
         <v>10</v>
       </c>
@@ -6657,12 +6812,12 @@
         <v>112</v>
       </c>
       <c r="H201" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K201" s="5"/>
       <c r="L201" s="9"/>
     </row>
-    <row r="202" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="E202" s="7">
         <v>11</v>
       </c>
@@ -6673,19 +6828,22 @@
         <v>120</v>
       </c>
       <c r="H202" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="I202" s="7" t="s">
         <v>155</v>
       </c>
       <c r="K202" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L202" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="M202" s="6" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="E203" s="7">
         <v>12</v>
       </c>
@@ -6701,7 +6859,7 @@
       <c r="K203" s="5"/>
       <c r="L203" s="9"/>
     </row>
-    <row r="204" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E204" s="7">
         <v>13</v>
       </c>
@@ -6709,16 +6867,16 @@
         <v>122</v>
       </c>
       <c r="G204" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K204" s="5"/>
       <c r="L204" s="9"/>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K205" s="5"/>
       <c r="L205" s="9"/>
     </row>
-    <row r="206" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
         <v>34</v>
       </c>
@@ -6735,7 +6893,7 @@
         <v>144</v>
       </c>
       <c r="H206" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I206" s="7" t="s">
         <v>62</v>
@@ -6743,7 +6901,7 @@
       <c r="K206" s="5"/>
       <c r="L206" s="9"/>
     </row>
-    <row r="207" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E207" s="7">
         <v>2</v>
       </c>
@@ -6754,13 +6912,13 @@
         <v>43</v>
       </c>
       <c r="H207" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I207" s="20"/>
       <c r="K207" s="5"/>
       <c r="L207" s="9"/>
     </row>
-    <row r="208" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="E208" s="7">
         <v>3</v>
       </c>
@@ -6771,7 +6929,7 @@
         <v>45</v>
       </c>
       <c r="H208" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K208" s="5"/>
       <c r="L208" s="9"/>
@@ -6787,7 +6945,7 @@
         <v>110</v>
       </c>
       <c r="H209" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I209" s="7" t="s">
         <v>111</v>
@@ -6806,7 +6964,7 @@
         <v>47</v>
       </c>
       <c r="H210" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I210" s="7" t="s">
         <v>48</v>
@@ -6825,7 +6983,7 @@
         <v>50</v>
       </c>
       <c r="H211" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I211" s="7" t="s">
         <v>51</v>
@@ -6844,7 +7002,7 @@
         <v>66</v>
       </c>
       <c r="H212" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K212" s="5"/>
       <c r="L212" s="9"/>
@@ -6860,7 +7018,7 @@
         <v>89</v>
       </c>
       <c r="H213" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I213" s="7" t="s">
         <v>57</v>
@@ -6879,7 +7037,7 @@
         <v>91</v>
       </c>
       <c r="H214" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K214" s="5"/>
       <c r="L214" s="9"/>
@@ -6895,7 +7053,7 @@
         <v>112</v>
       </c>
       <c r="H215" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K215" s="5"/>
       <c r="L215" s="9"/>
@@ -6911,7 +7069,7 @@
         <v>120</v>
       </c>
       <c r="H216" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I216" s="7" t="s">
         <v>155</v>
@@ -6930,13 +7088,16 @@
         <v>125</v>
       </c>
       <c r="H217" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="I217" s="7" t="s">
         <v>126</v>
       </c>
+      <c r="J217" s="29" t="s">
+        <v>582</v>
+      </c>
       <c r="K217" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L217" s="9" t="s">
         <v>14</v>
@@ -6989,7 +7150,7 @@
         <v>144</v>
       </c>
       <c r="H221" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I221" s="7" t="s">
         <v>62</v>
@@ -7008,7 +7169,7 @@
         <v>43</v>
       </c>
       <c r="H222" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I222" s="20"/>
       <c r="K222" s="5"/>
@@ -7025,7 +7186,7 @@
         <v>45</v>
       </c>
       <c r="H223" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K223" s="5"/>
       <c r="L223" s="9"/>
@@ -7041,7 +7202,7 @@
         <v>110</v>
       </c>
       <c r="H224" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I224" s="7" t="s">
         <v>111</v>
@@ -7060,7 +7221,7 @@
         <v>47</v>
       </c>
       <c r="H225" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I225" s="7" t="s">
         <v>48</v>
@@ -7079,7 +7240,7 @@
         <v>50</v>
       </c>
       <c r="H226" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I226" s="7" t="s">
         <v>51</v>
@@ -7098,7 +7259,7 @@
         <v>66</v>
       </c>
       <c r="H227" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K227" s="5"/>
       <c r="L227" s="9"/>
@@ -7114,7 +7275,7 @@
         <v>89</v>
       </c>
       <c r="H228" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I228" s="7" t="s">
         <v>57</v>
@@ -7133,7 +7294,7 @@
         <v>91</v>
       </c>
       <c r="H229" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K229" s="5"/>
       <c r="L229" s="9"/>
@@ -7149,7 +7310,7 @@
         <v>112</v>
       </c>
       <c r="H230" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K230" s="5"/>
       <c r="L230" s="9"/>
@@ -7165,7 +7326,7 @@
         <v>120</v>
       </c>
       <c r="H231" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I231" s="7" t="s">
         <v>153</v>
@@ -7181,13 +7342,13 @@
         <v>122</v>
       </c>
       <c r="G232" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="H232" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K232" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L232" s="9" t="s">
         <v>12</v>
@@ -7214,7 +7375,7 @@
         <v>144</v>
       </c>
       <c r="H234" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I234" s="7" t="s">
         <v>62</v>
@@ -7233,7 +7394,7 @@
         <v>43</v>
       </c>
       <c r="H235" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I235" s="20"/>
       <c r="K235" s="5"/>
@@ -7250,7 +7411,7 @@
         <v>45</v>
       </c>
       <c r="H236" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K236" s="5"/>
       <c r="L236" s="9"/>
@@ -7266,7 +7427,7 @@
         <v>110</v>
       </c>
       <c r="H237" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I237" s="7" t="s">
         <v>111</v>
@@ -7285,7 +7446,7 @@
         <v>47</v>
       </c>
       <c r="H238" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I238" s="7" t="s">
         <v>48</v>
@@ -7304,7 +7465,7 @@
         <v>50</v>
       </c>
       <c r="H239" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I239" s="7" t="s">
         <v>51</v>
@@ -7323,7 +7484,7 @@
         <v>66</v>
       </c>
       <c r="H240" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K240" s="5"/>
       <c r="L240" s="9"/>
@@ -7339,7 +7500,7 @@
         <v>89</v>
       </c>
       <c r="H241" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I241" s="7" t="s">
         <v>57</v>
@@ -7358,7 +7519,7 @@
         <v>91</v>
       </c>
       <c r="H242" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K242" s="5"/>
       <c r="L242" s="9"/>
@@ -7374,7 +7535,7 @@
         <v>112</v>
       </c>
       <c r="H243" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K243" s="5"/>
       <c r="L243" s="9"/>
@@ -7390,19 +7551,19 @@
         <v>140</v>
       </c>
       <c r="H244" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="I244" s="7" t="s">
         <v>146</v>
       </c>
       <c r="K244" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L244" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="245" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E245" s="7">
         <v>12</v>
       </c>
@@ -7436,7 +7597,7 @@
         <v>144</v>
       </c>
       <c r="H247" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I247" s="7" t="s">
         <v>62</v>
@@ -7455,7 +7616,7 @@
         <v>43</v>
       </c>
       <c r="H248" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I248" s="20"/>
       <c r="K248" s="5"/>
@@ -7472,7 +7633,7 @@
         <v>45</v>
       </c>
       <c r="H249" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K249" s="5"/>
       <c r="L249" s="9"/>
@@ -7488,7 +7649,7 @@
         <v>110</v>
       </c>
       <c r="H250" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I250" s="7" t="s">
         <v>111</v>
@@ -7507,7 +7668,7 @@
         <v>47</v>
       </c>
       <c r="H251" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I251" s="7" t="s">
         <v>48</v>
@@ -7526,7 +7687,7 @@
         <v>50</v>
       </c>
       <c r="H252" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I252" s="7" t="s">
         <v>51</v>
@@ -7545,7 +7706,7 @@
         <v>66</v>
       </c>
       <c r="H253" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K253" s="5"/>
       <c r="L253" s="9"/>
@@ -7561,7 +7722,7 @@
         <v>89</v>
       </c>
       <c r="H254" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I254" s="7" t="s">
         <v>57</v>
@@ -7580,7 +7741,7 @@
         <v>91</v>
       </c>
       <c r="H255" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K255" s="5"/>
       <c r="L255" s="9"/>
@@ -7596,7 +7757,7 @@
         <v>112</v>
       </c>
       <c r="H256" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K256" s="5"/>
       <c r="L256" s="9"/>
@@ -7612,7 +7773,7 @@
         <v>140</v>
       </c>
       <c r="H257" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="I257" s="7" t="s">
         <v>146</v>
@@ -7628,16 +7789,16 @@
         <v>122</v>
       </c>
       <c r="G258" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K258" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L258" s="9" t="s">
         <v>14</v>
       </c>
       <c r="M258" s="6" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
@@ -7645,7 +7806,7 @@
       <c r="L259" s="9"/>
     </row>
     <row r="260" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A260" s="28" t="s">
+      <c r="A260" s="21" t="s">
         <v>147</v>
       </c>
       <c r="B260" s="19" t="s">
@@ -7661,7 +7822,7 @@
         <v>144</v>
       </c>
       <c r="H260" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I260" s="7" t="s">
         <v>62</v>
@@ -7680,7 +7841,7 @@
         <v>43</v>
       </c>
       <c r="H261" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I261" s="20"/>
       <c r="K261" s="5"/>
@@ -7697,7 +7858,7 @@
         <v>45</v>
       </c>
       <c r="H262" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K262" s="5"/>
       <c r="L262" s="9"/>
@@ -7713,7 +7874,7 @@
         <v>110</v>
       </c>
       <c r="H263" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I263" s="7" t="s">
         <v>111</v>
@@ -7732,7 +7893,7 @@
         <v>47</v>
       </c>
       <c r="H264" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I264" s="7" t="s">
         <v>48</v>
@@ -7751,7 +7912,7 @@
         <v>50</v>
       </c>
       <c r="H265" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I265" s="7" t="s">
         <v>51</v>
@@ -7770,7 +7931,7 @@
         <v>66</v>
       </c>
       <c r="H266" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K266" s="5"/>
       <c r="L266" s="9"/>
@@ -7786,7 +7947,7 @@
         <v>89</v>
       </c>
       <c r="H267" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I267" s="7" t="s">
         <v>57</v>
@@ -7805,7 +7966,7 @@
         <v>91</v>
       </c>
       <c r="H268" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K268" s="5"/>
       <c r="L268" s="9"/>
@@ -7821,7 +7982,7 @@
         <v>112</v>
       </c>
       <c r="H269" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K269" s="5"/>
       <c r="L269" s="9"/>
@@ -7837,7 +7998,7 @@
         <v>140</v>
       </c>
       <c r="H270" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I270" s="7" t="s">
         <v>149</v>
@@ -7856,12 +8017,17 @@
         <v>150</v>
       </c>
       <c r="H271" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="K271" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="L271" s="9"/>
+        <v>514</v>
+      </c>
+      <c r="L271" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M271" s="6" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K272" s="5"/>
@@ -7884,7 +8050,7 @@
         <v>144</v>
       </c>
       <c r="H273" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I273" s="7" t="s">
         <v>62</v>
@@ -7903,7 +8069,7 @@
         <v>43</v>
       </c>
       <c r="H274" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I274" s="20"/>
       <c r="K274" s="5"/>
@@ -7920,7 +8086,7 @@
         <v>45</v>
       </c>
       <c r="H275" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K275" s="5"/>
       <c r="L275" s="9"/>
@@ -7936,7 +8102,7 @@
         <v>110</v>
       </c>
       <c r="H276" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I276" s="7" t="s">
         <v>111</v>
@@ -7955,7 +8121,7 @@
         <v>47</v>
       </c>
       <c r="H277" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I277" s="7" t="s">
         <v>48</v>
@@ -7974,7 +8140,7 @@
         <v>50</v>
       </c>
       <c r="H278" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I278" s="7" t="s">
         <v>51</v>
@@ -7993,7 +8159,7 @@
         <v>66</v>
       </c>
       <c r="H279" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K279" s="5"/>
       <c r="L279" s="9"/>
@@ -8009,7 +8175,7 @@
         <v>89</v>
       </c>
       <c r="H280" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I280" s="7" t="s">
         <v>57</v>
@@ -8028,7 +8194,7 @@
         <v>91</v>
       </c>
       <c r="H281" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K281" s="5"/>
       <c r="L281" s="9"/>
@@ -8044,7 +8210,7 @@
         <v>112</v>
       </c>
       <c r="H282" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K282" s="5"/>
       <c r="L282" s="9"/>
@@ -8060,7 +8226,7 @@
         <v>117</v>
       </c>
       <c r="H283" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I283" s="7" t="s">
         <v>118</v>
@@ -8079,19 +8245,19 @@
         <v>120</v>
       </c>
       <c r="H284" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="I284" s="7" t="s">
         <v>152</v>
       </c>
       <c r="K284" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L284" s="9" t="s">
         <v>14</v>
       </c>
       <c r="M284" s="6" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="285" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -8102,7 +8268,7 @@
         <v>122</v>
       </c>
       <c r="G285" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K285" s="5"/>
       <c r="L285" s="9"/>
@@ -8112,7 +8278,7 @@
       <c r="L286" s="9"/>
     </row>
     <row r="287" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A287" s="28" t="s">
+      <c r="A287" s="21" t="s">
         <v>181</v>
       </c>
       <c r="B287" s="19" t="s">
@@ -8125,7 +8291,7 @@
         <v>144</v>
       </c>
       <c r="H287" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I287" s="7" t="s">
         <v>62</v>
@@ -8144,7 +8310,7 @@
         <v>43</v>
       </c>
       <c r="H288" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I288" s="20"/>
       <c r="K288" s="5"/>
@@ -8161,7 +8327,7 @@
         <v>45</v>
       </c>
       <c r="H289" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K289" s="5"/>
       <c r="L289" s="9"/>
@@ -8177,7 +8343,7 @@
         <v>110</v>
       </c>
       <c r="H290" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I290" s="7" t="s">
         <v>111</v>
@@ -8196,7 +8362,7 @@
         <v>47</v>
       </c>
       <c r="H291" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I291" s="7" t="s">
         <v>48</v>
@@ -8215,7 +8381,7 @@
         <v>50</v>
       </c>
       <c r="H292" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I292" s="7" t="s">
         <v>51</v>
@@ -8234,7 +8400,7 @@
         <v>66</v>
       </c>
       <c r="H293" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K293" s="5"/>
       <c r="L293" s="9"/>
@@ -8250,7 +8416,7 @@
         <v>89</v>
       </c>
       <c r="H294" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I294" s="7" t="s">
         <v>57</v>
@@ -8269,7 +8435,7 @@
         <v>91</v>
       </c>
       <c r="H295" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K295" s="5"/>
       <c r="L295" s="9"/>
@@ -8285,7 +8451,7 @@
         <v>112</v>
       </c>
       <c r="H296" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K296" s="5"/>
       <c r="L296" s="9"/>
@@ -8301,7 +8467,7 @@
         <v>117</v>
       </c>
       <c r="H297" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I297" s="7" t="s">
         <v>118</v>
@@ -8320,7 +8486,7 @@
         <v>120</v>
       </c>
       <c r="H298" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I298" s="7" t="s">
         <v>161</v>
@@ -8338,10 +8504,15 @@
       <c r="G299" s="7" t="s">
         <v>162</v>
       </c>
+      <c r="J299" s="29" t="s">
+        <v>555</v>
+      </c>
       <c r="K299" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="L299" s="9"/>
+        <v>514</v>
+      </c>
+      <c r="L299" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K300" s="5"/>
@@ -8361,7 +8532,7 @@
         <v>144</v>
       </c>
       <c r="H301" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I301" s="7" t="s">
         <v>62</v>
@@ -8380,7 +8551,7 @@
         <v>43</v>
       </c>
       <c r="H302" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I302" s="20"/>
       <c r="K302" s="5"/>
@@ -8397,7 +8568,7 @@
         <v>45</v>
       </c>
       <c r="H303" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K303" s="5"/>
       <c r="L303" s="9"/>
@@ -8413,7 +8584,7 @@
         <v>175</v>
       </c>
       <c r="H304" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I304" s="7" t="s">
         <v>176</v>
@@ -8432,7 +8603,7 @@
         <v>47</v>
       </c>
       <c r="H305" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I305" s="7" t="s">
         <v>48</v>
@@ -8451,7 +8622,7 @@
         <v>50</v>
       </c>
       <c r="H306" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I306" s="7" t="s">
         <v>51</v>
@@ -8470,7 +8641,7 @@
         <v>66</v>
       </c>
       <c r="H307" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K307" s="5"/>
       <c r="L307" s="9"/>
@@ -8486,7 +8657,7 @@
         <v>89</v>
       </c>
       <c r="H308" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I308" s="7" t="s">
         <v>57</v>
@@ -8505,7 +8676,7 @@
         <v>91</v>
       </c>
       <c r="H309" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K309" s="5"/>
       <c r="L309" s="9"/>
@@ -8521,10 +8692,10 @@
         <v>180</v>
       </c>
       <c r="H310" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K310" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L310" s="9" t="s">
         <v>12</v>
@@ -8548,7 +8719,7 @@
         <v>144</v>
       </c>
       <c r="H312" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I312" s="7" t="s">
         <v>62</v>
@@ -8567,7 +8738,7 @@
         <v>43</v>
       </c>
       <c r="H313" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I313" s="20"/>
       <c r="K313" s="5"/>
@@ -8584,7 +8755,7 @@
         <v>45</v>
       </c>
       <c r="H314" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K314" s="5"/>
       <c r="L314" s="9"/>
@@ -8600,7 +8771,7 @@
         <v>175</v>
       </c>
       <c r="H315" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I315" s="7" t="s">
         <v>183</v>
@@ -8619,7 +8790,7 @@
         <v>47</v>
       </c>
       <c r="H316" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I316" s="7" t="s">
         <v>48</v>
@@ -8638,7 +8809,7 @@
         <v>50</v>
       </c>
       <c r="H317" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I317" s="7" t="s">
         <v>51</v>
@@ -8657,7 +8828,7 @@
         <v>66</v>
       </c>
       <c r="H318" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K318" s="5"/>
       <c r="L318" s="9"/>
@@ -8673,7 +8844,7 @@
         <v>89</v>
       </c>
       <c r="H319" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I319" s="7" t="s">
         <v>57</v>
@@ -8692,12 +8863,12 @@
         <v>91</v>
       </c>
       <c r="H320" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K320" s="5"/>
       <c r="L320" s="9"/>
     </row>
-    <row r="321" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E321" s="7">
         <v>9</v>
       </c>
@@ -8708,23 +8879,23 @@
         <v>180</v>
       </c>
       <c r="H321" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
+      </c>
+      <c r="J321" s="29" t="s">
+        <v>551</v>
       </c>
       <c r="K321" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L321" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="M321" s="6" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K322" s="5"/>
       <c r="L322" s="9"/>
     </row>
-    <row r="323" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A323" s="7" t="s">
         <v>210</v>
       </c>
@@ -8738,7 +8909,7 @@
         <v>144</v>
       </c>
       <c r="H323" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I323" s="7" t="s">
         <v>62</v>
@@ -8746,7 +8917,7 @@
       <c r="K323" s="5"/>
       <c r="L323" s="9"/>
     </row>
-    <row r="324" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E324" s="7">
         <v>1</v>
       </c>
@@ -8757,13 +8928,13 @@
         <v>43</v>
       </c>
       <c r="H324" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I324" s="20"/>
       <c r="K324" s="5"/>
       <c r="L324" s="9"/>
     </row>
-    <row r="325" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E325" s="7">
         <v>2</v>
       </c>
@@ -8774,12 +8945,12 @@
         <v>45</v>
       </c>
       <c r="H325" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K325" s="5"/>
       <c r="L325" s="9"/>
     </row>
-    <row r="326" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E326" s="7">
         <v>3</v>
       </c>
@@ -8790,7 +8961,7 @@
         <v>175</v>
       </c>
       <c r="H326" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I326" s="7" t="s">
         <v>183</v>
@@ -8798,7 +8969,7 @@
       <c r="K326" s="5"/>
       <c r="L326" s="9"/>
     </row>
-    <row r="327" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E327" s="7">
         <v>4</v>
       </c>
@@ -8809,7 +8980,7 @@
         <v>47</v>
       </c>
       <c r="H327" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I327" s="7" t="s">
         <v>48</v>
@@ -8817,7 +8988,7 @@
       <c r="K327" s="5"/>
       <c r="L327" s="9"/>
     </row>
-    <row r="328" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E328" s="7">
         <v>5</v>
       </c>
@@ -8828,7 +8999,7 @@
         <v>50</v>
       </c>
       <c r="H328" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I328" s="7" t="s">
         <v>51</v>
@@ -8836,7 +9007,7 @@
       <c r="K328" s="5"/>
       <c r="L328" s="9"/>
     </row>
-    <row r="329" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E329" s="7">
         <v>6</v>
       </c>
@@ -8847,12 +9018,12 @@
         <v>66</v>
       </c>
       <c r="H329" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K329" s="5"/>
       <c r="L329" s="9"/>
     </row>
-    <row r="330" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E330" s="7">
         <v>7</v>
       </c>
@@ -8863,7 +9034,7 @@
         <v>89</v>
       </c>
       <c r="H330" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I330" s="7" t="s">
         <v>57</v>
@@ -8871,7 +9042,7 @@
       <c r="K330" s="5"/>
       <c r="L330" s="9"/>
     </row>
-    <row r="331" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E331" s="7">
         <v>8</v>
       </c>
@@ -8882,12 +9053,12 @@
         <v>91</v>
       </c>
       <c r="H331" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K331" s="5"/>
       <c r="L331" s="9"/>
     </row>
-    <row r="332" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E332" s="7">
         <v>9</v>
       </c>
@@ -8898,19 +9069,19 @@
         <v>187</v>
       </c>
       <c r="H332" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
+      </c>
+      <c r="J332" s="29" t="s">
+        <v>551</v>
       </c>
       <c r="K332" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L332" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="M332" s="6" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="333" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="333" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="E333" s="7">
         <v>10</v>
       </c>
@@ -8923,7 +9094,7 @@
       <c r="K333" s="5"/>
       <c r="L333" s="9"/>
     </row>
-    <row r="334" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E334" s="7">
         <v>11</v>
       </c>
@@ -8936,11 +9107,11 @@
       <c r="K334" s="5"/>
       <c r="L334" s="9"/>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K335" s="5"/>
       <c r="L335" s="9"/>
     </row>
-    <row r="336" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A336" s="7" t="s">
         <v>212</v>
       </c>
@@ -8957,7 +9128,7 @@
         <v>40</v>
       </c>
       <c r="H336" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I336" s="7" t="s">
         <v>62</v>
@@ -8976,7 +9147,7 @@
         <v>43</v>
       </c>
       <c r="H337" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K337" s="5"/>
       <c r="L337" s="9"/>
@@ -8992,7 +9163,7 @@
         <v>45</v>
       </c>
       <c r="H338" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K338" s="5"/>
       <c r="L338" s="9"/>
@@ -9008,7 +9179,7 @@
         <v>47</v>
       </c>
       <c r="H339" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I339" s="7" t="s">
         <v>48</v>
@@ -9027,7 +9198,7 @@
         <v>50</v>
       </c>
       <c r="H340" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I340" s="7" t="s">
         <v>51</v>
@@ -9046,7 +9217,7 @@
         <v>64</v>
       </c>
       <c r="H341" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K341" s="5"/>
       <c r="L341" s="9"/>
@@ -9062,7 +9233,7 @@
         <v>66</v>
       </c>
       <c r="H342" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I342" s="7" t="s">
         <v>193</v>
@@ -9081,7 +9252,7 @@
         <v>87</v>
       </c>
       <c r="H343" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I343" s="7" t="s">
         <v>194</v>
@@ -9100,7 +9271,7 @@
         <v>197</v>
       </c>
       <c r="H344" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I344" s="7" t="s">
         <v>195</v>
@@ -9119,7 +9290,7 @@
         <v>198</v>
       </c>
       <c r="H345" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K345" s="5"/>
       <c r="L345" s="9"/>
@@ -9132,13 +9303,13 @@
         <v>103</v>
       </c>
       <c r="G346" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="H346" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K346" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L346" s="9" t="s">
         <v>12</v>
@@ -9162,7 +9333,7 @@
         <v>144</v>
       </c>
       <c r="H348" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I348" s="7" t="s">
         <v>62</v>
@@ -9182,7 +9353,7 @@
         <v>43</v>
       </c>
       <c r="H349" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I349" s="20"/>
       <c r="K349" s="5"/>
@@ -9201,7 +9372,7 @@
         <v>200</v>
       </c>
       <c r="H350" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I350" s="6"/>
       <c r="J350" s="5"/>
@@ -9220,7 +9391,7 @@
         <v>202</v>
       </c>
       <c r="H351" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I351" s="6" t="s">
         <v>203</v>
@@ -9243,7 +9414,7 @@
         <v>206</v>
       </c>
       <c r="H352" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I352" s="8"/>
       <c r="J352" s="5"/>
@@ -9269,14 +9440,14 @@
         <v>208</v>
       </c>
       <c r="H353" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I353" s="8" t="s">
         <v>209</v>
       </c>
       <c r="J353" s="5"/>
       <c r="K353" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L353" s="9" t="s">
         <v>12</v>
@@ -9318,7 +9489,7 @@
         <v>144</v>
       </c>
       <c r="H355" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I355" s="7" t="s">
         <v>62</v>
@@ -9341,7 +9512,7 @@
         <v>43</v>
       </c>
       <c r="H356" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I356" s="20"/>
       <c r="J356" s="5"/>
@@ -9360,7 +9531,7 @@
         <v>200</v>
       </c>
       <c r="H357" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I357" s="6"/>
       <c r="J357" s="5"/>
@@ -9379,7 +9550,7 @@
         <v>202</v>
       </c>
       <c r="H358" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I358" s="6" t="s">
         <v>203</v>
@@ -9402,7 +9573,7 @@
         <v>206</v>
       </c>
       <c r="H359" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I359" s="8"/>
       <c r="J359" s="5"/>
@@ -9424,7 +9595,7 @@
         <v>214</v>
       </c>
       <c r="H360" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I360" s="7" t="s">
         <v>219</v>
@@ -9443,10 +9614,10 @@
         <v>216</v>
       </c>
       <c r="H361" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K361" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L361" s="9" t="s">
         <v>12</v>
@@ -9477,7 +9648,7 @@
         <v>144</v>
       </c>
       <c r="H364" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I364" s="7" t="s">
         <v>62</v>
@@ -9496,7 +9667,7 @@
         <v>43</v>
       </c>
       <c r="H365" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I365" s="20"/>
       <c r="K365" s="5"/>
@@ -9513,7 +9684,7 @@
         <v>200</v>
       </c>
       <c r="H366" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I366" s="6"/>
       <c r="K366" s="5"/>
@@ -9530,7 +9701,7 @@
         <v>202</v>
       </c>
       <c r="H367" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I367" s="6" t="s">
         <v>203</v>
@@ -9549,7 +9720,7 @@
         <v>206</v>
       </c>
       <c r="H368" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K368" s="5"/>
       <c r="L368" s="9"/>
@@ -9565,7 +9736,7 @@
         <v>223</v>
       </c>
       <c r="H369" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K369" s="5"/>
       <c r="L369" s="9"/>
@@ -9581,7 +9752,7 @@
         <v>214</v>
       </c>
       <c r="H370" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K370" s="5"/>
       <c r="L370" s="9"/>
@@ -9597,10 +9768,10 @@
         <v>216</v>
       </c>
       <c r="H371" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K371" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L371" s="9" t="s">
         <v>12</v>
@@ -9632,7 +9803,7 @@
         <v>144</v>
       </c>
       <c r="H374" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I374" s="7" t="s">
         <v>62</v>
@@ -9651,7 +9822,7 @@
         <v>43</v>
       </c>
       <c r="H375" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I375" s="20"/>
       <c r="K375" s="5"/>
@@ -9668,7 +9839,7 @@
         <v>200</v>
       </c>
       <c r="H376" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I376" s="6"/>
       <c r="K376" s="5"/>
@@ -9685,7 +9856,7 @@
         <v>202</v>
       </c>
       <c r="H377" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I377" s="6" t="s">
         <v>203</v>
@@ -9704,7 +9875,7 @@
         <v>206</v>
       </c>
       <c r="H378" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K378" s="5"/>
       <c r="L378" s="9"/>
@@ -9714,7 +9885,7 @@
       <c r="F379" s="24"/>
       <c r="G379" s="24"/>
       <c r="H379" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K379" s="5"/>
       <c r="L379" s="9"/>
@@ -9730,7 +9901,7 @@
         <v>214</v>
       </c>
       <c r="H380" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K380" s="5"/>
       <c r="L380" s="9"/>
@@ -9746,10 +9917,10 @@
         <v>216</v>
       </c>
       <c r="H381" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K381" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L381" s="9" t="s">
         <v>12</v>
@@ -9781,7 +9952,7 @@
         <v>144</v>
       </c>
       <c r="H384" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I384" s="7" t="s">
         <v>62</v>
@@ -9800,7 +9971,7 @@
         <v>43</v>
       </c>
       <c r="H385" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I385" s="20"/>
       <c r="K385" s="5"/>
@@ -9817,7 +9988,7 @@
         <v>200</v>
       </c>
       <c r="H386" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I386" s="6"/>
       <c r="K386" s="5"/>
@@ -9834,7 +10005,7 @@
         <v>202</v>
       </c>
       <c r="H387" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I387" s="6" t="s">
         <v>203</v>
@@ -9853,7 +10024,7 @@
         <v>206</v>
       </c>
       <c r="H388" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K388" s="5"/>
       <c r="L388" s="9"/>
@@ -9869,7 +10040,7 @@
         <v>214</v>
       </c>
       <c r="H389" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K389" s="5"/>
       <c r="L389" s="9"/>
@@ -9885,10 +10056,10 @@
         <v>216</v>
       </c>
       <c r="H390" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K390" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L390" s="9" t="s">
         <v>12</v>
@@ -9921,7 +10092,7 @@
         <v>144</v>
       </c>
       <c r="H393" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I393" s="7" t="s">
         <v>62</v>
@@ -9940,7 +10111,7 @@
         <v>43</v>
       </c>
       <c r="H394" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I394" s="20"/>
       <c r="K394" s="5"/>
@@ -9957,7 +10128,7 @@
         <v>200</v>
       </c>
       <c r="H395" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I395" s="6"/>
       <c r="K395" s="5"/>
@@ -9974,7 +10145,7 @@
         <v>232</v>
       </c>
       <c r="H396" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K396" s="5"/>
       <c r="L396" s="9"/>
@@ -9990,7 +10161,7 @@
         <v>234</v>
       </c>
       <c r="H397" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K397" s="5"/>
       <c r="L397" s="9"/>
@@ -10006,7 +10177,7 @@
         <v>236</v>
       </c>
       <c r="H398" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K398" s="5"/>
       <c r="L398" s="9"/>
@@ -10022,7 +10193,7 @@
         <v>238</v>
       </c>
       <c r="H399" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K399" s="5"/>
       <c r="L399" s="9"/>
@@ -10038,10 +10209,10 @@
         <v>240</v>
       </c>
       <c r="H400" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K400" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L400" s="9" t="s">
         <v>12</v>
@@ -10065,7 +10236,7 @@
         <v>144</v>
       </c>
       <c r="H402" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I402" s="7" t="s">
         <v>62</v>
@@ -10084,7 +10255,7 @@
         <v>43</v>
       </c>
       <c r="H403" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I403" s="20"/>
       <c r="K403" s="5"/>
@@ -10101,7 +10272,7 @@
         <v>200</v>
       </c>
       <c r="H404" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I404" s="6"/>
       <c r="K404" s="5"/>
@@ -10118,7 +10289,7 @@
         <v>232</v>
       </c>
       <c r="H405" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K405" s="5"/>
       <c r="L405" s="9"/>
@@ -10134,7 +10305,7 @@
         <v>236</v>
       </c>
       <c r="H406" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K406" s="5"/>
       <c r="L406" s="9"/>
@@ -10150,7 +10321,7 @@
         <v>238</v>
       </c>
       <c r="H407" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K407" s="5"/>
       <c r="L407" s="9"/>
@@ -10166,7 +10337,7 @@
         <v>244</v>
       </c>
       <c r="H408" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K408" s="5"/>
       <c r="L408" s="9"/>
@@ -10182,7 +10353,7 @@
         <v>245</v>
       </c>
       <c r="H409" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K409" s="5"/>
       <c r="L409" s="9"/>
@@ -10195,13 +10366,13 @@
         <v>246</v>
       </c>
       <c r="G410" s="23" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="H410" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K410" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L410" s="9" t="s">
         <v>12</v>
@@ -10213,7 +10384,7 @@
     </row>
     <row r="412" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A412" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B412" s="19" t="s">
         <v>36</v>
@@ -10225,7 +10396,7 @@
         <v>144</v>
       </c>
       <c r="H412" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I412" s="7" t="s">
         <v>62</v>
@@ -10244,7 +10415,7 @@
         <v>43</v>
       </c>
       <c r="H413" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I413" s="20"/>
       <c r="K413" s="5"/>
@@ -10261,7 +10432,7 @@
         <v>200</v>
       </c>
       <c r="H414" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I414" s="6"/>
       <c r="K414" s="5"/>
@@ -10278,7 +10449,7 @@
         <v>202</v>
       </c>
       <c r="H415" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I415" s="6" t="s">
         <v>203</v>
@@ -10297,7 +10468,7 @@
         <v>249</v>
       </c>
       <c r="H416" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="K416" s="5"/>
       <c r="L416" s="9"/>
@@ -10313,7 +10484,7 @@
         <v>214</v>
       </c>
       <c r="H417" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="K417" s="5"/>
       <c r="L417" s="9"/>
@@ -10326,13 +10497,13 @@
         <v>215</v>
       </c>
       <c r="G418" s="24" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H418" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="K418" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L418" s="9" t="s">
         <v>12</v>
@@ -10353,7 +10524,7 @@
     </row>
     <row r="421" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A421" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B421" s="19" t="s">
         <v>36</v>
@@ -10365,7 +10536,7 @@
         <v>144</v>
       </c>
       <c r="H421" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I421" s="7" t="s">
         <v>62</v>
@@ -10384,7 +10555,7 @@
         <v>43</v>
       </c>
       <c r="H422" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I422" s="20"/>
       <c r="K422" s="5"/>
@@ -10401,7 +10572,7 @@
         <v>200</v>
       </c>
       <c r="H423" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I423" s="6"/>
       <c r="K423" s="5"/>
@@ -10418,7 +10589,7 @@
         <v>202</v>
       </c>
       <c r="H424" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I424" s="6" t="s">
         <v>203</v>
@@ -10437,7 +10608,7 @@
         <v>249</v>
       </c>
       <c r="H425" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K425" s="5"/>
       <c r="L425" s="9"/>
@@ -10453,7 +10624,7 @@
         <v>223</v>
       </c>
       <c r="H426" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K426" s="5"/>
       <c r="L426" s="9"/>
@@ -10469,16 +10640,16 @@
         <v>214</v>
       </c>
       <c r="H427" s="26" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="K427" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L427" s="9" t="s">
         <v>14</v>
       </c>
       <c r="M427" s="6" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="428" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -10502,7 +10673,7 @@
     </row>
     <row r="430" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A430" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B430" s="19" t="s">
         <v>36</v>
@@ -10514,7 +10685,7 @@
         <v>144</v>
       </c>
       <c r="H430" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I430" s="7" t="s">
         <v>62</v>
@@ -10533,7 +10704,7 @@
         <v>43</v>
       </c>
       <c r="H431" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I431" s="20"/>
       <c r="K431" s="5"/>
@@ -10550,7 +10721,7 @@
         <v>200</v>
       </c>
       <c r="H432" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I432" s="6"/>
       <c r="K432" s="5"/>
@@ -10567,7 +10738,7 @@
         <v>202</v>
       </c>
       <c r="H433" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I433" s="6" t="s">
         <v>203</v>
@@ -10586,7 +10757,7 @@
         <v>249</v>
       </c>
       <c r="H434" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K434" s="5"/>
       <c r="L434" s="9"/>
@@ -10602,7 +10773,7 @@
         <v>223</v>
       </c>
       <c r="H435" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K435" s="5"/>
       <c r="L435" s="9"/>
@@ -10612,16 +10783,19 @@
         <v>7</v>
       </c>
       <c r="F436" s="24" t="s">
-        <v>257</v>
+        <v>584</v>
       </c>
       <c r="G436" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="H436" s="29" t="s">
-        <v>550</v>
+        <v>585</v>
+      </c>
+      <c r="H436" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="J436" s="6" t="s">
+        <v>552</v>
       </c>
       <c r="K436" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L436" s="9" t="s">
         <v>14</v>
@@ -10634,19 +10808,19 @@
     </row>
     <row r="438" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A438" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B438" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D438" s="24" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F438" s="7" t="s">
         <v>144</v>
       </c>
       <c r="H438" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I438" s="7" t="s">
         <v>62</v>
@@ -10665,7 +10839,7 @@
         <v>43</v>
       </c>
       <c r="H439" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I439" s="20"/>
       <c r="K439" s="5"/>
@@ -10682,7 +10856,7 @@
         <v>200</v>
       </c>
       <c r="H440" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I440" s="6"/>
       <c r="K440" s="5"/>
@@ -10699,7 +10873,7 @@
         <v>202</v>
       </c>
       <c r="H441" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I441" s="6" t="s">
         <v>203</v>
@@ -10718,7 +10892,7 @@
         <v>223</v>
       </c>
       <c r="H442" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K442" s="5"/>
       <c r="L442" s="9"/>
@@ -10728,13 +10902,13 @@
         <v>5</v>
       </c>
       <c r="F443" s="24" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G443" s="24" t="s">
         <v>214</v>
       </c>
       <c r="H443" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K443" s="5"/>
       <c r="L443" s="9"/>
@@ -10750,10 +10924,10 @@
         <v>216</v>
       </c>
       <c r="H444" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K444" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L444" s="9" t="s">
         <v>12</v>
@@ -10766,19 +10940,19 @@
     </row>
     <row r="446" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A446" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B446" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D446" s="24" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F446" s="7" t="s">
         <v>144</v>
       </c>
       <c r="H446" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I446" s="7" t="s">
         <v>62</v>
@@ -10797,7 +10971,7 @@
         <v>43</v>
       </c>
       <c r="H447" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I447" s="20"/>
       <c r="K447" s="5"/>
@@ -10814,7 +10988,7 @@
         <v>200</v>
       </c>
       <c r="H448" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I448" s="6"/>
       <c r="K448" s="5"/>
@@ -10831,7 +11005,7 @@
         <v>202</v>
       </c>
       <c r="H449" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I449" s="6" t="s">
         <v>203</v>
@@ -10844,13 +11018,13 @@
         <v>4</v>
       </c>
       <c r="F450" s="24" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G450" s="24" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H450" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="K450" s="5"/>
       <c r="L450" s="9"/>
@@ -10860,13 +11034,13 @@
         <v>5</v>
       </c>
       <c r="F451" s="24" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G451" s="24" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H451" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="K451" s="5"/>
       <c r="L451" s="9"/>
@@ -10881,11 +11055,11 @@
       <c r="G452" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="H452" s="29" t="s">
-        <v>548</v>
+      <c r="H452" s="28" t="s">
+        <v>545</v>
       </c>
       <c r="K452" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L452" s="9" t="s">
         <v>12</v>
@@ -10898,19 +11072,19 @@
     </row>
     <row r="454" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A454" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B454" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D454" s="24" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F454" s="7" t="s">
         <v>144</v>
       </c>
       <c r="H454" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I454" s="7" t="s">
         <v>62</v>
@@ -10929,7 +11103,7 @@
         <v>43</v>
       </c>
       <c r="H455" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I455" s="20"/>
       <c r="K455" s="5"/>
@@ -10946,7 +11120,7 @@
         <v>200</v>
       </c>
       <c r="H456" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I456" s="6"/>
       <c r="K456" s="5"/>
@@ -10963,7 +11137,7 @@
         <v>202</v>
       </c>
       <c r="H457" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I457" s="6" t="s">
         <v>203</v>
@@ -10976,13 +11150,13 @@
         <v>4</v>
       </c>
       <c r="F458" s="24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G458" s="23" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H458" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I458" s="7" t="s">
         <v>209</v>
@@ -10995,16 +11169,16 @@
         <v>5</v>
       </c>
       <c r="F459" s="24" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G459" s="24" t="s">
         <v>208</v>
       </c>
       <c r="H459" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K459" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L459" s="9" t="s">
         <v>12</v>
@@ -11017,19 +11191,19 @@
     </row>
     <row r="461" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A461" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B461" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D461" s="24" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F461" s="7" t="s">
         <v>144</v>
       </c>
       <c r="H461" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I461" s="7" t="s">
         <v>62</v>
@@ -11048,7 +11222,7 @@
         <v>43</v>
       </c>
       <c r="H462" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I462" s="20"/>
       <c r="K462" s="5"/>
@@ -11065,7 +11239,7 @@
         <v>200</v>
       </c>
       <c r="H463" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I463" s="6"/>
       <c r="K463" s="5"/>
@@ -11082,7 +11256,7 @@
         <v>202</v>
       </c>
       <c r="H464" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I464" s="6" t="s">
         <v>203</v>
@@ -11095,13 +11269,13 @@
         <v>4</v>
       </c>
       <c r="F465" s="24" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G465" s="23" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H465" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K465" s="5"/>
       <c r="L465" s="9"/>
@@ -11111,16 +11285,16 @@
         <v>5</v>
       </c>
       <c r="F466" s="24" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G466" s="24" t="s">
         <v>208</v>
       </c>
       <c r="H466" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K466" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L466" s="9" t="s">
         <v>12</v>
@@ -11133,19 +11307,19 @@
     </row>
     <row r="468" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A468" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B468" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D468" s="24" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F468" s="7" t="s">
         <v>144</v>
       </c>
       <c r="H468" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I468" s="7" t="s">
         <v>62</v>
@@ -11164,7 +11338,7 @@
         <v>43</v>
       </c>
       <c r="H469" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I469" s="20"/>
       <c r="K469" s="5"/>
@@ -11181,7 +11355,7 @@
         <v>200</v>
       </c>
       <c r="H470" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I470" s="6"/>
       <c r="K470" s="5"/>
@@ -11198,7 +11372,7 @@
         <v>202</v>
       </c>
       <c r="H471" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I471" s="6" t="s">
         <v>203</v>
@@ -11211,13 +11385,13 @@
         <v>4</v>
       </c>
       <c r="F472" s="24" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G472" s="24" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H472" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I472" s="7" t="s">
         <v>209</v>
@@ -11230,16 +11404,16 @@
         <v>5</v>
       </c>
       <c r="F473" s="24" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G473" s="24" t="s">
         <v>208</v>
       </c>
       <c r="H473" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K473" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L473" s="9" t="s">
         <v>12</v>
@@ -11252,19 +11426,19 @@
     </row>
     <row r="475" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A475" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B475" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D475" s="24" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F475" s="7" t="s">
         <v>144</v>
       </c>
       <c r="H475" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I475" s="7" t="s">
         <v>62</v>
@@ -11283,7 +11457,7 @@
         <v>43</v>
       </c>
       <c r="H476" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I476" s="20"/>
       <c r="K476" s="5"/>
@@ -11300,7 +11474,7 @@
         <v>200</v>
       </c>
       <c r="H477" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I477" s="6"/>
       <c r="K477" s="5"/>
@@ -11317,7 +11491,7 @@
         <v>202</v>
       </c>
       <c r="H478" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I478" s="6" t="s">
         <v>203</v>
@@ -11330,13 +11504,13 @@
         <v>4</v>
       </c>
       <c r="F479" s="24" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G479" s="24" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H479" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I479" s="7" t="s">
         <v>209</v>
@@ -11349,16 +11523,16 @@
         <v>5</v>
       </c>
       <c r="F480" s="24" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G480" s="24" t="s">
         <v>208</v>
       </c>
       <c r="H480" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K480" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L480" s="9" t="s">
         <v>12</v>
@@ -11371,19 +11545,19 @@
     </row>
     <row r="482" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A482" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B482" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D482" s="24" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F482" s="7" t="s">
         <v>144</v>
       </c>
       <c r="H482" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I482" s="7" t="s">
         <v>62</v>
@@ -11402,7 +11576,7 @@
         <v>43</v>
       </c>
       <c r="H483" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I483" s="20"/>
       <c r="K483" s="5"/>
@@ -11419,7 +11593,7 @@
         <v>200</v>
       </c>
       <c r="H484" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I484" s="6"/>
       <c r="K484" s="5"/>
@@ -11436,7 +11610,7 @@
         <v>202</v>
       </c>
       <c r="H485" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I485" s="6" t="s">
         <v>203</v>
@@ -11449,13 +11623,13 @@
         <v>4</v>
       </c>
       <c r="F486" s="24" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G486" s="24" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H486" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K486" s="5"/>
       <c r="L486" s="9"/>
@@ -11465,16 +11639,16 @@
         <v>5</v>
       </c>
       <c r="F487" s="24" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G487" s="24" t="s">
         <v>208</v>
       </c>
       <c r="H487" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K487" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L487" s="9" t="s">
         <v>12</v>
@@ -11487,19 +11661,19 @@
     </row>
     <row r="489" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A489" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B489" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D489" s="24" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F489" s="7" t="s">
         <v>144</v>
       </c>
       <c r="H489" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I489" s="7" t="s">
         <v>62</v>
@@ -11518,7 +11692,7 @@
         <v>43</v>
       </c>
       <c r="H490" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I490" s="20"/>
       <c r="K490" s="9"/>
@@ -11535,7 +11709,7 @@
         <v>200</v>
       </c>
       <c r="H491" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I491" s="6"/>
       <c r="K491" s="9"/>
@@ -11552,7 +11726,7 @@
         <v>202</v>
       </c>
       <c r="H492" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I492" s="6" t="s">
         <v>203</v>
@@ -11565,13 +11739,13 @@
         <v>4</v>
       </c>
       <c r="F493" s="24" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G493" s="24" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H493" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K493" s="9"/>
       <c r="L493" s="9"/>
@@ -11581,16 +11755,16 @@
         <v>5</v>
       </c>
       <c r="F494" s="24" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G494" s="24" t="s">
         <v>208</v>
       </c>
       <c r="H494" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K494" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L494" s="9" t="s">
         <v>12</v>
@@ -11603,19 +11777,19 @@
     </row>
     <row r="496" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A496" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B496" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D496" s="24" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F496" s="7" t="s">
         <v>144</v>
       </c>
       <c r="H496" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I496" s="7" t="s">
         <v>62</v>
@@ -11634,7 +11808,7 @@
         <v>43</v>
       </c>
       <c r="H497" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I497" s="20"/>
       <c r="K497" s="9"/>
@@ -11651,7 +11825,7 @@
         <v>200</v>
       </c>
       <c r="H498" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I498" s="6"/>
       <c r="K498" s="9"/>
@@ -11662,13 +11836,13 @@
         <v>3</v>
       </c>
       <c r="F499" s="23" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G499" s="24" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H499" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K499" s="9"/>
       <c r="L499" s="9"/>
@@ -11678,13 +11852,13 @@
         <v>4</v>
       </c>
       <c r="F500" s="24" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G500" s="24" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H500" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K500" s="9"/>
       <c r="L500" s="9"/>
@@ -11694,22 +11868,22 @@
         <v>5</v>
       </c>
       <c r="F501" s="24" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G501" s="24" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H501" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="K501" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L501" s="9" t="s">
         <v>14</v>
       </c>
       <c r="M501" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="502" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -11717,10 +11891,10 @@
         <v>6</v>
       </c>
       <c r="F502" s="23" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G502" s="24" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H502" s="20"/>
       <c r="K502" s="9"/>
@@ -11733,19 +11907,19 @@
     </row>
     <row r="504" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A504" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B504" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D504" s="24" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F504" s="7" t="s">
         <v>144</v>
       </c>
       <c r="H504" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I504" s="7" t="s">
         <v>62</v>
@@ -11764,7 +11938,7 @@
         <v>43</v>
       </c>
       <c r="H505" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I505" s="20"/>
       <c r="K505" s="9"/>
@@ -11781,7 +11955,7 @@
         <v>200</v>
       </c>
       <c r="H506" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I506" s="6"/>
       <c r="K506" s="9"/>
@@ -11792,13 +11966,13 @@
         <v>3</v>
       </c>
       <c r="F507" s="24" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G507" s="24" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H507" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K507" s="9"/>
       <c r="L507" s="9"/>
@@ -11808,16 +11982,16 @@
         <v>4</v>
       </c>
       <c r="F508" s="24" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G508" s="24" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H508" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K508" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L508" s="9" t="s">
         <v>12</v>
@@ -11829,19 +12003,19 @@
     </row>
     <row r="510" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A510" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B510" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D510" s="24" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F510" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H510" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I510" s="7" t="s">
         <v>62</v>
@@ -11860,7 +12034,7 @@
         <v>43</v>
       </c>
       <c r="H511" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I511" s="20"/>
       <c r="K511" s="9"/>
@@ -11877,68 +12051,68 @@
         <v>200</v>
       </c>
       <c r="H512" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I512" s="6"/>
       <c r="K512" s="9"/>
       <c r="L512" s="9"/>
     </row>
-    <row r="513" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E513" s="23">
         <v>3</v>
       </c>
       <c r="F513" s="23" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G513" s="24" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H513" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K513" s="9"/>
       <c r="L513" s="9"/>
     </row>
-    <row r="514" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="E514" s="23">
         <v>4</v>
       </c>
       <c r="F514" s="24" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G514" s="24" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H514" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="I514" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
+      </c>
+      <c r="J514" s="29" t="s">
+        <v>556</v>
       </c>
       <c r="K514" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L514" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="M514" s="6" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="515" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="515" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E515" s="23">
         <v>5</v>
       </c>
       <c r="F515" s="24" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G515" s="24" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K515" s="9"/>
       <c r="L515" s="9"/>
     </row>
-    <row r="516" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E516" s="23">
         <v>6</v>
       </c>
@@ -11946,32 +12120,32 @@
         <v>239</v>
       </c>
       <c r="G516" s="24" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H516" s="20"/>
       <c r="K516" s="9"/>
       <c r="L516" s="9"/>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H517" s="6"/>
       <c r="K517" s="9"/>
       <c r="L517" s="9"/>
     </row>
-    <row r="518" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A518" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B518" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D518" s="24" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F518" s="7" t="s">
         <v>144</v>
       </c>
       <c r="H518" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I518" s="7" t="s">
         <v>62</v>
@@ -11979,7 +12153,7 @@
       <c r="K518" s="9"/>
       <c r="L518" s="9"/>
     </row>
-    <row r="519" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E519" s="7">
         <v>1</v>
       </c>
@@ -11990,13 +12164,13 @@
         <v>43</v>
       </c>
       <c r="H519" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I519" s="20"/>
       <c r="K519" s="9"/>
       <c r="L519" s="9"/>
     </row>
-    <row r="520" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E520" s="23">
         <v>2</v>
       </c>
@@ -12007,68 +12181,68 @@
         <v>200</v>
       </c>
       <c r="H520" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I520" s="6"/>
       <c r="K520" s="9"/>
       <c r="L520" s="9"/>
     </row>
-    <row r="521" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E521" s="23">
         <v>3</v>
       </c>
       <c r="F521" s="23" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G521" s="24" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H521" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K521" s="9"/>
       <c r="L521" s="9"/>
     </row>
-    <row r="522" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="E522" s="23">
         <v>4</v>
       </c>
       <c r="F522" s="24" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G522" s="24" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H522" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I522" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
+      </c>
+      <c r="J522" s="29" t="s">
+        <v>556</v>
       </c>
       <c r="K522" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L522" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="M522" s="6" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="523" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="523" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E523" s="23">
         <v>6</v>
       </c>
       <c r="F523" s="24" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G523" s="24" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K523" s="9"/>
       <c r="L523" s="9"/>
     </row>
-    <row r="524" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E524" s="23">
         <v>7</v>
       </c>
@@ -12076,41 +12250,41 @@
         <v>239</v>
       </c>
       <c r="G524" s="24" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H524" s="20"/>
       <c r="K524" s="9"/>
       <c r="L524" s="9"/>
     </row>
-    <row r="525" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E525" s="23">
         <v>8</v>
       </c>
       <c r="F525" s="24" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G525" s="24" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H525" s="6"/>
       <c r="K525" s="9"/>
       <c r="L525" s="9"/>
     </row>
-    <row r="526" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A526" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B526" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D526" s="24" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F526" s="7" t="s">
         <v>144</v>
       </c>
       <c r="H526" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I526" s="7" t="s">
         <v>62</v>
@@ -12118,7 +12292,7 @@
       <c r="K526" s="9"/>
       <c r="L526" s="9"/>
     </row>
-    <row r="527" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E527" s="7">
         <v>1</v>
       </c>
@@ -12129,24 +12303,24 @@
         <v>43</v>
       </c>
       <c r="H527" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I527" s="20"/>
       <c r="K527" s="9"/>
       <c r="L527" s="9"/>
     </row>
-    <row r="528" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="E528" s="23">
         <v>2</v>
       </c>
       <c r="F528" s="24" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G528" s="24" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H528" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I528" s="6"/>
       <c r="K528" s="9"/>
@@ -12157,16 +12331,16 @@
         <v>3</v>
       </c>
       <c r="F529" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="G529" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H529" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="I529" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="G529" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="H529" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="I529" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="K529" s="9"/>
       <c r="L529" s="9"/>
@@ -12176,13 +12350,13 @@
         <v>4</v>
       </c>
       <c r="F530" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G530" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H530" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K530" s="9"/>
       <c r="L530" s="9"/>
@@ -12192,16 +12366,16 @@
         <v>5</v>
       </c>
       <c r="F531" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G531" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H531" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K531" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L531" s="9" t="s">
         <v>12</v>
@@ -12214,19 +12388,19 @@
     </row>
     <row r="533" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A533" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B533" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D533" s="24" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F533" s="7" t="s">
         <v>144</v>
       </c>
       <c r="H533" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I533" s="7" t="s">
         <v>62</v>
@@ -12245,7 +12419,7 @@
         <v>43</v>
       </c>
       <c r="H534" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K534" s="9"/>
       <c r="L534" s="9"/>
@@ -12255,13 +12429,13 @@
         <v>2</v>
       </c>
       <c r="F535" s="24" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G535" s="24" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H535" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K535" s="9"/>
       <c r="L535" s="9"/>
@@ -12271,13 +12445,13 @@
         <v>3</v>
       </c>
       <c r="F536" s="24" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G536" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H536" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K536" s="9"/>
       <c r="L536" s="9"/>
@@ -12287,13 +12461,13 @@
         <v>4</v>
       </c>
       <c r="F537" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G537" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="G537" s="7" t="s">
-        <v>338</v>
-      </c>
       <c r="H537" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K537" s="9"/>
       <c r="L537" s="9"/>
@@ -12303,13 +12477,13 @@
         <v>5</v>
       </c>
       <c r="F538" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G538" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H538" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="J538" s="7"/>
       <c r="K538" s="5"/>
@@ -12320,23 +12494,23 @@
         <v>6</v>
       </c>
       <c r="F539" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="G539" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="H539" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="J539" s="7"/>
       <c r="K539" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L539" s="9" t="s">
         <v>14</v>
       </c>
       <c r="M539" s="6" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="540" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -12344,10 +12518,10 @@
         <v>7</v>
       </c>
       <c r="F540" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="G540" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="J540" s="7"/>
       <c r="K540" s="5"/>
@@ -12359,19 +12533,19 @@
     </row>
     <row r="542" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A542" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B542" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D542" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F542" s="7" t="s">
         <v>144</v>
       </c>
       <c r="H542" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I542" s="7" t="s">
         <v>62</v>
@@ -12390,7 +12564,7 @@
         <v>43</v>
       </c>
       <c r="H543" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K543" s="9"/>
       <c r="L543" s="9"/>
@@ -12400,13 +12574,13 @@
         <v>2</v>
       </c>
       <c r="F544" s="24" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G544" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H544" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K544" s="9"/>
       <c r="L544" s="9"/>
@@ -12416,25 +12590,25 @@
         <v>3</v>
       </c>
       <c r="F545" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G545" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="H545" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="I545" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="G545" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="H545" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="I545" s="7" t="s">
-        <v>347</v>
-      </c>
       <c r="K545" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L545" s="9" t="s">
         <v>14</v>
       </c>
       <c r="M545" s="6" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="546" spans="1:13" x14ac:dyDescent="0.25">
@@ -12442,10 +12616,10 @@
         <v>4</v>
       </c>
       <c r="F546" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G546" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K546" s="9"/>
       <c r="L546" s="9"/>
@@ -12456,19 +12630,19 @@
     </row>
     <row r="548" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A548" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B548" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D548" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F548" s="7" t="s">
         <v>144</v>
       </c>
       <c r="H548" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="I548" s="7" t="s">
         <v>62</v>
@@ -12487,7 +12661,7 @@
         <v>43</v>
       </c>
       <c r="H549" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="K549" s="9"/>
       <c r="L549" s="9"/>
@@ -12497,13 +12671,13 @@
         <v>2</v>
       </c>
       <c r="F550" s="24" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G550" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H550" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="K550" s="9"/>
       <c r="L550" s="9"/>
@@ -12513,28 +12687,25 @@
         <v>3</v>
       </c>
       <c r="F551" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G551" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H551" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="I551" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J551" s="7" t="s">
-        <v>570</v>
+        <v>586</v>
       </c>
       <c r="K551" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L551" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="M551" s="6" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="552" spans="1:13" x14ac:dyDescent="0.25">
@@ -12542,10 +12713,10 @@
         <v>4</v>
       </c>
       <c r="F552" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G552" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="L552" s="9"/>
     </row>
@@ -12555,19 +12726,19 @@
     </row>
     <row r="554" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A554" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B554" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D554" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F554" s="7" t="s">
         <v>144</v>
       </c>
       <c r="H554" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I554" s="7" t="s">
         <v>62</v>
@@ -12586,7 +12757,7 @@
         <v>43</v>
       </c>
       <c r="H555" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K555" s="9"/>
       <c r="L555" s="9"/>
@@ -12596,13 +12767,13 @@
         <v>2</v>
       </c>
       <c r="F556" s="24" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G556" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H556" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K556" s="9"/>
       <c r="L556" s="9"/>
@@ -12612,25 +12783,25 @@
         <v>3</v>
       </c>
       <c r="F557" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G557" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H557" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="I557" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
+      </c>
+      <c r="J557" s="29" t="s">
+        <v>565</v>
       </c>
       <c r="K557" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L557" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="M557" s="6" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="558" spans="1:13" x14ac:dyDescent="0.25">
@@ -12638,10 +12809,10 @@
         <v>4</v>
       </c>
       <c r="F558" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G558" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K558" s="9"/>
       <c r="L558" s="9"/>
@@ -12652,19 +12823,19 @@
     </row>
     <row r="560" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A560" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B560" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D560" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F560" s="7" t="s">
         <v>144</v>
       </c>
       <c r="H560" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I560" s="7" t="s">
         <v>62</v>
@@ -12672,7 +12843,7 @@
       <c r="K560" s="9"/>
       <c r="L560" s="9"/>
     </row>
-    <row r="561" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E561" s="7">
         <v>1</v>
       </c>
@@ -12683,85 +12854,85 @@
         <v>43</v>
       </c>
       <c r="H561" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K561" s="9"/>
       <c r="L561" s="9"/>
     </row>
-    <row r="562" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E562" s="23">
         <v>2</v>
       </c>
       <c r="F562" s="24" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G562" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H562" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K562" s="9"/>
       <c r="L562" s="9"/>
     </row>
-    <row r="563" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="E563" s="7">
         <v>3</v>
       </c>
       <c r="F563" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G563" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H563" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I563" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
+      </c>
+      <c r="J563" s="29" t="s">
+        <v>565</v>
       </c>
       <c r="K563" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L563" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="M563" s="6" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="564" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="564" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E564" s="7">
         <v>4</v>
       </c>
       <c r="F564" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G564" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K564" s="9"/>
       <c r="L564" s="9"/>
     </row>
-    <row r="565" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K565" s="9"/>
       <c r="L565" s="9"/>
     </row>
-    <row r="566" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A566" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B566" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D566" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F566" s="7" t="s">
         <v>144</v>
       </c>
       <c r="H566" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I566" s="7" t="s">
         <v>62</v>
@@ -12769,7 +12940,7 @@
       <c r="K566" s="9"/>
       <c r="L566" s="9"/>
     </row>
-    <row r="567" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E567" s="7">
         <v>1</v>
       </c>
@@ -12780,82 +12951,82 @@
         <v>43</v>
       </c>
       <c r="H567" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K567" s="9"/>
       <c r="L567" s="9"/>
     </row>
-    <row r="568" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="E568" s="23">
         <v>2</v>
       </c>
       <c r="F568" s="24" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G568" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H568" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K568" s="9"/>
       <c r="L568" s="9"/>
     </row>
-    <row r="569" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E569" s="24">
         <v>3</v>
       </c>
       <c r="F569" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G569" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H569" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I569" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="K569" s="9"/>
       <c r="L569" s="9"/>
     </row>
-    <row r="570" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E570" s="7">
         <v>4</v>
       </c>
       <c r="F570" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G570" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K570" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L570" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="571" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K571" s="9"/>
       <c r="L571" s="9"/>
     </row>
-    <row r="572" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A572" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B572" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D572" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F572" s="7" t="s">
         <v>144</v>
       </c>
       <c r="H572" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I572" s="7" t="s">
         <v>62</v>
@@ -12863,7 +13034,7 @@
       <c r="K572" s="9"/>
       <c r="L572" s="9"/>
     </row>
-    <row r="573" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E573" s="7">
         <v>1</v>
       </c>
@@ -12874,55 +13045,55 @@
         <v>43</v>
       </c>
       <c r="H573" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K573" s="9"/>
       <c r="L573" s="9"/>
     </row>
-    <row r="574" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="E574" s="23">
         <v>2</v>
       </c>
       <c r="F574" s="24" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G574" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H574" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K574" s="9"/>
       <c r="L574" s="9"/>
     </row>
-    <row r="575" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E575" s="7">
         <v>3</v>
       </c>
       <c r="F575" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G575" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H575" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K575" s="9"/>
       <c r="L575" s="9"/>
     </row>
-    <row r="576" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E576" s="7">
         <v>4</v>
       </c>
       <c r="F576" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G576" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H576" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K576" s="9"/>
       <c r="L576" s="9"/>
@@ -12932,16 +13103,16 @@
         <v>5</v>
       </c>
       <c r="F577" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G577" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H577" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K577" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L577" s="9" t="s">
         <v>12</v>
@@ -12953,19 +13124,19 @@
     </row>
     <row r="579" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A579" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B579" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D579" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F579" s="7" t="s">
         <v>144</v>
       </c>
       <c r="H579" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I579" s="7" t="s">
         <v>62</v>
@@ -12984,7 +13155,7 @@
         <v>43</v>
       </c>
       <c r="H580" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K580" s="9"/>
       <c r="L580" s="9"/>
@@ -12994,13 +13165,13 @@
         <v>2</v>
       </c>
       <c r="F581" s="24" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G581" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H581" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K581" s="9"/>
       <c r="L581" s="9"/>
@@ -13010,13 +13181,13 @@
         <v>3</v>
       </c>
       <c r="F582" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G582" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H582" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K582" s="9"/>
       <c r="L582" s="9"/>
@@ -13026,16 +13197,16 @@
         <v>4</v>
       </c>
       <c r="F583" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G583" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H583" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I583" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K583" s="9"/>
       <c r="L583" s="9"/>
@@ -13045,16 +13216,16 @@
         <v>5</v>
       </c>
       <c r="F584" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G584" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H584" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K584" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L584" s="9" t="s">
         <v>12</v>
@@ -13066,19 +13237,19 @@
     </row>
     <row r="586" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A586" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B586" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D586" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F586" s="7" t="s">
         <v>144</v>
       </c>
       <c r="H586" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I586" s="7" t="s">
         <v>62</v>
@@ -13097,7 +13268,7 @@
         <v>43</v>
       </c>
       <c r="H587" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K587" s="9"/>
       <c r="L587" s="9"/>
@@ -13107,13 +13278,13 @@
         <v>2</v>
       </c>
       <c r="F588" s="24" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G588" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H588" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K588" s="9"/>
       <c r="L588" s="9"/>
@@ -13123,13 +13294,13 @@
         <v>3</v>
       </c>
       <c r="F589" s="24" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G589" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H589" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K589" s="9"/>
       <c r="L589" s="9"/>
@@ -13139,13 +13310,13 @@
         <v>4</v>
       </c>
       <c r="F590" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G590" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H590" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K590" s="9"/>
       <c r="L590" s="9"/>
@@ -13155,16 +13326,16 @@
         <v>5</v>
       </c>
       <c r="F591" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G591" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H591" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I591" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K591" s="9"/>
       <c r="L591" s="9"/>
@@ -13174,16 +13345,16 @@
         <v>6</v>
       </c>
       <c r="F592" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G592" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H592" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I592" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K592" s="9"/>
       <c r="L592" s="9"/>
@@ -13193,16 +13364,16 @@
         <v>7</v>
       </c>
       <c r="F593" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G593" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H593" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K593" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L593" s="9" t="s">
         <v>12</v>
@@ -13214,19 +13385,19 @@
     </row>
     <row r="595" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A595" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B595" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D595" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F595" s="7" t="s">
         <v>144</v>
       </c>
       <c r="H595" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I595" s="7" t="s">
         <v>62</v>
@@ -13245,7 +13416,7 @@
         <v>43</v>
       </c>
       <c r="H596" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K596" s="9"/>
       <c r="L596" s="9"/>
@@ -13255,13 +13426,13 @@
         <v>2</v>
       </c>
       <c r="F597" s="24" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G597" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H597" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K597" s="9"/>
       <c r="L597" s="9"/>
@@ -13271,13 +13442,13 @@
         <v>3</v>
       </c>
       <c r="F598" s="24" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G598" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H598" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K598" s="9"/>
       <c r="L598" s="9"/>
@@ -13287,13 +13458,13 @@
         <v>4</v>
       </c>
       <c r="F599" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G599" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H599" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K599" s="9"/>
       <c r="L599" s="9"/>
@@ -13303,16 +13474,16 @@
         <v>5</v>
       </c>
       <c r="F600" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G600" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H600" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K600" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L600" s="9" t="s">
         <v>12</v>
@@ -13324,19 +13495,19 @@
     </row>
     <row r="602" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A602" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B602" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D602" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F602" s="7" t="s">
         <v>144</v>
       </c>
       <c r="H602" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I602" s="7" t="s">
         <v>62</v>
@@ -13355,7 +13526,7 @@
         <v>43</v>
       </c>
       <c r="H603" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K603" s="9"/>
       <c r="L603" s="9"/>
@@ -13365,13 +13536,13 @@
         <v>2</v>
       </c>
       <c r="F604" s="24" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G604" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H604" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K604" s="9"/>
       <c r="L604" s="9"/>
@@ -13381,13 +13552,13 @@
         <v>3</v>
       </c>
       <c r="F605" s="24" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G605" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H605" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K605" s="9"/>
       <c r="L605" s="9"/>
@@ -13397,16 +13568,16 @@
         <v>4</v>
       </c>
       <c r="F606" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G606" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H606" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="I606" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="G606" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="H606" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="I606" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="K606" s="9"/>
       <c r="L606" s="9"/>
@@ -13416,13 +13587,13 @@
         <v>5</v>
       </c>
       <c r="F607" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G607" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="H607" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K607" s="9"/>
       <c r="L607" s="9"/>
@@ -13432,16 +13603,16 @@
         <v>6</v>
       </c>
       <c r="F608" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G608" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="H608" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="I608" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="G608" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="H608" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="I608" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="K608" s="9"/>
       <c r="L608" s="9"/>
@@ -13451,16 +13622,20 @@
         <v>7</v>
       </c>
       <c r="F609" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G609" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H609" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="K609" s="9"/>
-      <c r="L609" s="9"/>
+        <v>517</v>
+      </c>
+      <c r="K609" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="L609" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="610" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K610" s="9"/>
@@ -13468,19 +13643,19 @@
     </row>
     <row r="611" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A611" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B611" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D611" s="24" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F611" s="7" t="s">
         <v>144</v>
       </c>
       <c r="H611" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I611" s="7" t="s">
         <v>62</v>
@@ -13499,7 +13674,7 @@
         <v>43</v>
       </c>
       <c r="H612" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K612" s="9"/>
       <c r="L612" s="9"/>
@@ -13509,22 +13684,22 @@
         <v>2</v>
       </c>
       <c r="F613" s="24" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G613" s="24" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H613" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="K613" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L613" s="9" t="s">
         <v>14</v>
       </c>
       <c r="M613" s="6" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="614" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -13532,10 +13707,10 @@
         <v>3</v>
       </c>
       <c r="F614" s="24" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G614" s="24" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="K614" s="9"/>
       <c r="L614" s="9"/>
@@ -13545,10 +13720,10 @@
         <v>4</v>
       </c>
       <c r="F615" s="24" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G615" s="24" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="K615" s="9"/>
       <c r="L615" s="9"/>
@@ -13558,13 +13733,13 @@
         <v>5</v>
       </c>
       <c r="F616" s="24" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G616" s="24" t="s">
         <v>214</v>
       </c>
       <c r="I616" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="K616" s="9"/>
       <c r="L616" s="9"/>
@@ -13599,19 +13774,19 @@
     </row>
     <row r="620" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A620" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B620" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D620" s="24" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F620" s="7" t="s">
         <v>144</v>
       </c>
       <c r="H620" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I620" s="7" t="s">
         <v>62</v>
@@ -13630,7 +13805,7 @@
         <v>43</v>
       </c>
       <c r="H621" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K621" s="9"/>
       <c r="L621" s="9"/>
@@ -13640,13 +13815,13 @@
         <v>2</v>
       </c>
       <c r="F622" s="24" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G622" s="24" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H622" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K622" s="9"/>
       <c r="L622" s="9"/>
@@ -13656,13 +13831,13 @@
         <v>4</v>
       </c>
       <c r="F623" s="24" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G623" s="24" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H623" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K623" s="9"/>
       <c r="L623" s="9"/>
@@ -13672,13 +13847,13 @@
         <v>5</v>
       </c>
       <c r="F624" s="24" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G624" s="24" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H624" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K624" s="9"/>
       <c r="L624" s="9"/>
@@ -13688,16 +13863,16 @@
         <v>6</v>
       </c>
       <c r="F625" s="24" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G625" s="24" t="s">
         <v>214</v>
       </c>
       <c r="H625" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I625" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K625" s="9"/>
       <c r="L625" s="9"/>
@@ -13713,10 +13888,10 @@
         <v>216</v>
       </c>
       <c r="H626" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K626" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L626" s="9" t="s">
         <v>12</v>
@@ -13735,19 +13910,19 @@
     </row>
     <row r="629" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A629" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B629" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D629" s="24" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F629" s="7" t="s">
         <v>144</v>
       </c>
       <c r="H629" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I629" s="7" t="s">
         <v>62</v>
@@ -13766,7 +13941,7 @@
         <v>43</v>
       </c>
       <c r="H630" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K630" s="9"/>
       <c r="L630" s="9"/>
@@ -13776,13 +13951,13 @@
         <v>2</v>
       </c>
       <c r="F631" s="24" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G631" s="24" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H631" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K631" s="9"/>
       <c r="L631" s="9"/>
@@ -13792,13 +13967,13 @@
         <v>4</v>
       </c>
       <c r="F632" s="24" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G632" s="24" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H632" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K632" s="9"/>
       <c r="L632" s="9"/>
@@ -13808,13 +13983,13 @@
         <v>5</v>
       </c>
       <c r="F633" s="24" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G633" s="24" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H633" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K633" s="9"/>
       <c r="L633" s="9"/>
@@ -13824,16 +13999,16 @@
         <v>6</v>
       </c>
       <c r="F634" s="24" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G634" s="24" t="s">
         <v>214</v>
       </c>
       <c r="H634" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I634" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K634" s="9"/>
       <c r="L634" s="9"/>
@@ -13849,10 +14024,10 @@
         <v>216</v>
       </c>
       <c r="H635" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K635" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L635" s="9" t="s">
         <v>12</v>
@@ -13875,19 +14050,19 @@
     </row>
     <row r="638" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A638" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B638" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D638" s="24" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F638" s="7" t="s">
         <v>144</v>
       </c>
       <c r="H638" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I638" s="7" t="s">
         <v>62</v>
@@ -13906,7 +14081,7 @@
         <v>43</v>
       </c>
       <c r="H639" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K639" s="9"/>
       <c r="L639" s="9"/>
@@ -13916,13 +14091,13 @@
         <v>2</v>
       </c>
       <c r="F640" s="24" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G640" s="24" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H640" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K640" s="9"/>
       <c r="L640" s="9"/>
@@ -13932,13 +14107,13 @@
         <v>4</v>
       </c>
       <c r="F641" s="24" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G641" s="24" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H641" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K641" s="9"/>
       <c r="L641" s="9"/>
@@ -13948,13 +14123,13 @@
         <v>5</v>
       </c>
       <c r="F642" s="24" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G642" s="24" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H642" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K642" s="9"/>
       <c r="L642" s="9"/>
@@ -13964,16 +14139,16 @@
         <v>6</v>
       </c>
       <c r="F643" s="24" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G643" s="24" t="s">
         <v>214</v>
       </c>
       <c r="H643" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I643" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K643" s="9"/>
       <c r="L643" s="9"/>
@@ -13989,10 +14164,10 @@
         <v>216</v>
       </c>
       <c r="H644" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K644" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L644" s="9" t="s">
         <v>12</v>
@@ -14004,19 +14179,19 @@
     </row>
     <row r="646" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A646" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B646" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D646" s="24" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F646" s="7" t="s">
         <v>144</v>
       </c>
       <c r="H646" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I646" s="7" t="s">
         <v>62</v>
@@ -14035,7 +14210,7 @@
         <v>43</v>
       </c>
       <c r="H647" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K647" s="9"/>
       <c r="L647" s="9"/>
@@ -14045,13 +14220,13 @@
         <v>2</v>
       </c>
       <c r="F648" s="24" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G648" s="24" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H648" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K648" s="9"/>
       <c r="L648" s="9"/>
@@ -14061,13 +14236,13 @@
         <v>4</v>
       </c>
       <c r="F649" s="24" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G649" s="24" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H649" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K649" s="9"/>
       <c r="L649" s="9"/>
@@ -14077,13 +14252,13 @@
         <v>5</v>
       </c>
       <c r="F650" s="24" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G650" s="24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H650" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K650" s="9"/>
       <c r="L650" s="9"/>
@@ -14093,16 +14268,16 @@
         <v>6</v>
       </c>
       <c r="F651" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G651" s="24" t="s">
         <v>214</v>
       </c>
       <c r="H651" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I651" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K651" s="9"/>
       <c r="L651" s="9"/>
@@ -14118,10 +14293,10 @@
         <v>216</v>
       </c>
       <c r="H652" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K652" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L652" s="9" t="s">
         <v>12</v>
@@ -14140,19 +14315,19 @@
     </row>
     <row r="655" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A655" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B655" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D655" s="24" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F655" s="7" t="s">
         <v>144</v>
       </c>
       <c r="H655" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I655" s="7" t="s">
         <v>62</v>
@@ -14171,7 +14346,7 @@
         <v>43</v>
       </c>
       <c r="H656" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K656" s="9"/>
       <c r="L656" s="9"/>
@@ -14181,13 +14356,13 @@
         <v>2</v>
       </c>
       <c r="F657" s="24" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G657" s="24" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H657" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K657" s="9"/>
       <c r="L657" s="9"/>
@@ -14200,10 +14375,10 @@
         <v>231</v>
       </c>
       <c r="G658" s="24" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H658" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K658" s="9"/>
       <c r="L658" s="9"/>
@@ -14219,10 +14394,10 @@
         <v>236</v>
       </c>
       <c r="H659" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I659" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="K659" s="9"/>
       <c r="L659" s="9"/>
@@ -14235,13 +14410,13 @@
         <v>237</v>
       </c>
       <c r="G660" s="24" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H660" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K660" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L660" s="9" t="s">
         <v>12</v>
@@ -14253,7 +14428,7 @@
     </row>
     <row r="662" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A662" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B662" s="19" t="s">
         <v>36</v>
@@ -14265,7 +14440,7 @@
         <v>144</v>
       </c>
       <c r="H662" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I662" s="7" t="s">
         <v>62</v>
@@ -14284,7 +14459,7 @@
         <v>43</v>
       </c>
       <c r="H663" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K663" s="9"/>
       <c r="L663" s="9"/>
@@ -14294,13 +14469,13 @@
         <v>2</v>
       </c>
       <c r="F664" s="24" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G664" s="24" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H664" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K664" s="9"/>
       <c r="L664" s="9"/>
@@ -14310,13 +14485,13 @@
         <v>3</v>
       </c>
       <c r="F665" s="24" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G665" s="24" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H665" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K665" s="9"/>
       <c r="L665" s="9"/>
@@ -14326,16 +14501,16 @@
         <v>4</v>
       </c>
       <c r="F666" s="24" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G666" s="24" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H666" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I666" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K666" s="9"/>
       <c r="L666" s="9"/>
@@ -14348,10 +14523,10 @@
         <v>237</v>
       </c>
       <c r="G667" s="24" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H667" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K667" s="9"/>
       <c r="L667" s="9"/>
@@ -14367,7 +14542,7 @@
         <v>244</v>
       </c>
       <c r="H668" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K668" s="9"/>
       <c r="L668" s="9"/>
@@ -14383,7 +14558,7 @@
         <v>245</v>
       </c>
       <c r="H669" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K669" s="9"/>
       <c r="L669" s="9"/>
@@ -14396,10 +14571,10 @@
         <v>246</v>
       </c>
       <c r="G670" s="24" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H670" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K670" s="9"/>
       <c r="L670" s="9"/>
@@ -14409,13 +14584,13 @@
         <v>9</v>
       </c>
       <c r="F671" s="24" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G671" s="24" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H671" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K671" s="9"/>
       <c r="L671" s="9"/>
@@ -14425,40 +14600,40 @@
         <v>10</v>
       </c>
       <c r="F672" s="24" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G672" s="24" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H672" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K672" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L672" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="673" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K673" s="9"/>
       <c r="L673" s="9"/>
     </row>
-    <row r="674" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A674" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B674" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D674" s="24" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F674" s="7" t="s">
         <v>144</v>
       </c>
       <c r="H674" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I674" s="7" t="s">
         <v>62</v>
@@ -14466,7 +14641,7 @@
       <c r="K674" s="9"/>
       <c r="L674" s="9"/>
     </row>
-    <row r="675" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E675" s="7">
         <v>1</v>
       </c>
@@ -14477,66 +14652,66 @@
         <v>43</v>
       </c>
       <c r="H675" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K675" s="9"/>
       <c r="L675" s="9"/>
     </row>
-    <row r="676" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="E676" s="23">
         <v>2</v>
       </c>
       <c r="F676" s="24" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G676" s="24" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H676" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K676" s="9"/>
       <c r="L676" s="9"/>
     </row>
-    <row r="677" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="E677" s="7">
         <v>3</v>
       </c>
       <c r="F677" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="G677" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H677" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="I677" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="G677" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="H677" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="I677" s="7" t="s">
-        <v>466</v>
       </c>
       <c r="K677" s="9"/>
       <c r="L677" s="9"/>
     </row>
-    <row r="678" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="E678" s="7">
         <v>4</v>
       </c>
       <c r="F678" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G678" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="G678" s="7" t="s">
-        <v>470</v>
-      </c>
       <c r="H678" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I678" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="K678" s="9"/>
       <c r="L678" s="9"/>
     </row>
-    <row r="679" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E679" s="7">
         <v>5</v>
       </c>
@@ -14544,34 +14719,41 @@
         <v>231</v>
       </c>
       <c r="G679" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H679" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K679" s="9"/>
       <c r="L679" s="9"/>
     </row>
-    <row r="680" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="E680" s="7">
         <v>6</v>
       </c>
       <c r="F680" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G680" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H680" s="7" t="s">
-        <v>520</v>
+        <v>576</v>
       </c>
       <c r="I680" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="K680" s="9"/>
-      <c r="L680" s="9"/>
-    </row>
-    <row r="681" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+      <c r="K680" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="L680" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M680" s="6" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="681" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E681" s="7">
         <v>7</v>
       </c>
@@ -14579,42 +14761,36 @@
         <v>231</v>
       </c>
       <c r="G681" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="H681" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="K681" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="L681" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="682" spans="1:12" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="682" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K682" s="9"/>
       <c r="L682" s="9"/>
     </row>
-    <row r="683" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A683" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B683" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D683" s="24" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F683" s="7" t="s">
         <v>144</v>
       </c>
+      <c r="H683" s="7" t="s">
+        <v>517</v>
+      </c>
       <c r="I683" s="7" t="s">
         <v>62</v>
       </c>
       <c r="K683" s="9"/>
       <c r="L683" s="9"/>
     </row>
-    <row r="684" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E684" s="7">
         <v>1</v>
       </c>
@@ -14624,55 +14800,67 @@
       <c r="G684" s="7" t="s">
         <v>43</v>
       </c>
+      <c r="H684" s="7" t="s">
+        <v>517</v>
+      </c>
       <c r="K684" s="9"/>
       <c r="L684" s="9"/>
     </row>
-    <row r="685" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="E685" s="23">
         <v>2</v>
       </c>
       <c r="F685" s="24" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G685" s="24" t="s">
-        <v>463</v>
+        <v>461</v>
+      </c>
+      <c r="H685" s="7" t="s">
+        <v>517</v>
       </c>
       <c r="K685" s="9"/>
       <c r="L685" s="9"/>
     </row>
-    <row r="686" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="E686" s="7">
         <v>3</v>
       </c>
       <c r="F686" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="G686" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H686" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="I686" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="G686" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="I686" s="7" t="s">
-        <v>466</v>
       </c>
       <c r="K686" s="9"/>
       <c r="L686" s="9"/>
     </row>
-    <row r="687" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="E687" s="7">
         <v>4</v>
       </c>
       <c r="F687" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="G687" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="G687" s="7" t="s">
-        <v>470</v>
+      <c r="H687" s="7" t="s">
+        <v>517</v>
       </c>
       <c r="I687" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="K687" s="9"/>
       <c r="L687" s="9"/>
     </row>
-    <row r="688" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E688" s="7">
         <v>4</v>
       </c>
@@ -14680,72 +14868,91 @@
         <v>231</v>
       </c>
       <c r="G688" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
+      </c>
+      <c r="H688" s="7" t="s">
+        <v>517</v>
       </c>
       <c r="K688" s="9"/>
       <c r="L688" s="9"/>
     </row>
-    <row r="689" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="E689" s="7">
         <v>5</v>
       </c>
       <c r="F689" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G689" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
+      </c>
+      <c r="H689" s="7" t="s">
+        <v>517</v>
       </c>
       <c r="K689" s="9"/>
       <c r="L689" s="9"/>
     </row>
-    <row r="690" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="E690" s="7">
         <v>6</v>
       </c>
       <c r="F690" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G690" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="K690" s="9"/>
-      <c r="L690" s="9"/>
-    </row>
-    <row r="691" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+      <c r="H690" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="K690" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="L690" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M690" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="691" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E691" s="7">
         <v>7</v>
       </c>
       <c r="F691" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G691" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="K691" s="9"/>
       <c r="L691" s="9"/>
     </row>
-    <row r="692" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L692" s="9"/>
     </row>
-    <row r="693" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A693" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B693" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D693" s="24" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F693" s="7" t="s">
         <v>144</v>
       </c>
+      <c r="H693" s="7" t="s">
+        <v>517</v>
+      </c>
       <c r="I693" s="7" t="s">
         <v>62</v>
       </c>
       <c r="L693" s="9"/>
     </row>
-    <row r="694" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E694" s="7">
         <v>1</v>
       </c>
@@ -14755,81 +14962,107 @@
       <c r="G694" s="7" t="s">
         <v>43</v>
       </c>
+      <c r="H694" s="7" t="s">
+        <v>517</v>
+      </c>
       <c r="L694" s="9"/>
     </row>
-    <row r="695" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E695" s="23">
         <v>2</v>
       </c>
       <c r="F695" s="24" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G695" s="24" t="s">
-        <v>485</v>
+        <v>483</v>
+      </c>
+      <c r="H695" s="7" t="s">
+        <v>517</v>
       </c>
       <c r="L695" s="9"/>
     </row>
-    <row r="696" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="E696" s="7">
         <v>3</v>
       </c>
       <c r="F696" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G696" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
+      </c>
+      <c r="H696" s="7" t="s">
+        <v>517</v>
       </c>
       <c r="L696" s="9"/>
     </row>
-    <row r="697" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="E697" s="7">
         <v>4</v>
       </c>
       <c r="F697" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G697" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
+      </c>
+      <c r="H697" s="7" t="s">
+        <v>517</v>
       </c>
       <c r="I697" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L697" s="9"/>
     </row>
-    <row r="698" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E698" s="7">
         <v>5</v>
       </c>
       <c r="F698" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G698" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="L698" s="9"/>
-    </row>
-    <row r="699" spans="1:12" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+      <c r="H698" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="K698" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="L698" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M698" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="699" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L699" s="9"/>
     </row>
-    <row r="700" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A700" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B700" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D700" s="24" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F700" s="7" t="s">
         <v>144</v>
       </c>
+      <c r="H700" s="7" t="s">
+        <v>517</v>
+      </c>
       <c r="I700" s="7" t="s">
         <v>62</v>
       </c>
       <c r="L700" s="9"/>
     </row>
-    <row r="701" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E701" s="7">
         <v>1</v>
       </c>
@@ -14839,66 +15072,81 @@
       <c r="G701" s="7" t="s">
         <v>43</v>
       </c>
+      <c r="H701" s="7" t="s">
+        <v>517</v>
+      </c>
       <c r="L701" s="9"/>
     </row>
-    <row r="702" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E702" s="23">
         <v>2</v>
       </c>
       <c r="F702" s="24" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G702" s="24" t="s">
-        <v>485</v>
+        <v>483</v>
+      </c>
+      <c r="H702" s="7" t="s">
+        <v>517</v>
       </c>
       <c r="L702" s="9"/>
     </row>
-    <row r="703" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="E703" s="7">
         <v>3</v>
       </c>
       <c r="F703" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="G703" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="H703" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="I703" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="G703" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="I703" s="7" t="s">
-        <v>493</v>
-      </c>
       <c r="L703" s="9"/>
     </row>
-    <row r="704" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="E704" s="7">
         <v>4</v>
       </c>
       <c r="F704" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G704" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
+      </c>
+      <c r="H704" s="7" t="s">
+        <v>517</v>
       </c>
       <c r="I704" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L704" s="9"/>
     </row>
-    <row r="705" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E705" s="7">
         <v>5</v>
       </c>
       <c r="F705" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="G705" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="H705" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="I705" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="G705" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="I705" s="7" t="s">
-        <v>498</v>
-      </c>
       <c r="L705" s="9"/>
     </row>
-    <row r="706" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="E706" s="7">
         <v>6</v>
       </c>
@@ -14906,44 +15154,58 @@
         <v>231</v>
       </c>
       <c r="G706" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="L706" s="9"/>
-    </row>
-    <row r="707" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+      <c r="H706" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="K706" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="L706" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M706" s="6" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="707" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E707" s="7">
         <v>7</v>
       </c>
       <c r="F707" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="G707" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="L707" s="9"/>
+    </row>
+    <row r="708" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L708" s="9"/>
+    </row>
+    <row r="709" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A709" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="G707" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="L707" s="9"/>
-    </row>
-    <row r="708" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L708" s="9"/>
-    </row>
-    <row r="709" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A709" s="7" t="s">
-        <v>504</v>
       </c>
       <c r="B709" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D709" s="24" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F709" s="7" t="s">
         <v>144</v>
       </c>
+      <c r="H709" s="7" t="s">
+        <v>517</v>
+      </c>
       <c r="I709" s="7" t="s">
         <v>62</v>
       </c>
       <c r="L709" s="9"/>
     </row>
-    <row r="710" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E710" s="7">
         <v>1</v>
       </c>
@@ -14953,69 +15215,81 @@
       <c r="G710" s="7" t="s">
         <v>43</v>
       </c>
+      <c r="H710" s="7" t="s">
+        <v>517</v>
+      </c>
       <c r="L710" s="9"/>
     </row>
-    <row r="711" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E711" s="23">
         <v>2</v>
       </c>
       <c r="F711" s="24" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G711" s="24" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H711" s="7" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="L711" s="9"/>
     </row>
-    <row r="712" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="E712" s="7">
         <v>3</v>
       </c>
       <c r="F712" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="G712" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="H712" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="I712" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="G712" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="I712" s="7" t="s">
-        <v>493</v>
-      </c>
       <c r="L712" s="9"/>
     </row>
-    <row r="713" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="E713" s="7">
         <v>4</v>
       </c>
       <c r="F713" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G713" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
+      </c>
+      <c r="H713" s="7" t="s">
+        <v>517</v>
       </c>
       <c r="I713" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L713" s="9"/>
     </row>
-    <row r="714" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E714" s="7">
         <v>5</v>
       </c>
       <c r="F714" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="G714" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="H714" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="I714" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="G714" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="I714" s="7" t="s">
-        <v>498</v>
-      </c>
       <c r="L714" s="9"/>
     </row>
-    <row r="715" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="E715" s="7">
         <v>6</v>
       </c>
@@ -15023,85 +15297,532 @@
         <v>231</v>
       </c>
       <c r="G715" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="L715" s="9"/>
-    </row>
-    <row r="716" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+      <c r="H715" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="J715" s="29" t="s">
+        <v>580</v>
+      </c>
+      <c r="K715" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="L715" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="716" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E716" s="7">
         <v>7</v>
       </c>
       <c r="F716" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G716" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="L716" s="9"/>
     </row>
-    <row r="717" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L717" s="9"/>
     </row>
-    <row r="718" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B718" s="19"/>
+    <row r="718" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A718" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="B718" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C718" s="6"/>
+      <c r="D718" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="F718" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H718" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="I718" s="32" t="s">
+        <v>589</v>
+      </c>
       <c r="L718" s="9"/>
     </row>
-    <row r="719" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C719" s="6"/>
+      <c r="E719" s="7">
+        <v>1</v>
+      </c>
+      <c r="F719" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G719" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H719" s="7" t="s">
+        <v>517</v>
+      </c>
       <c r="L719" s="9"/>
     </row>
-    <row r="720" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C720" s="6"/>
+      <c r="E720" s="7">
+        <v>2</v>
+      </c>
+      <c r="F720" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="G720" s="7" t="s">
+        <v>591</v>
+      </c>
       <c r="H720" s="7" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="L720" s="9"/>
     </row>
-    <row r="721" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L721" s="9"/>
-    </row>
-    <row r="722" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="C721" s="6"/>
+      <c r="E721" s="7">
+        <v>3</v>
+      </c>
+      <c r="F721" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="G721" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="H721" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="K721" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="L721" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="722" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C722" s="6"/>
       <c r="L722" s="9"/>
     </row>
-    <row r="723" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A723" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="B723" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C723" s="6"/>
+      <c r="D723" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="F723" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="H723" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="I723" s="32" t="s">
+        <v>589</v>
+      </c>
       <c r="L723" s="9"/>
     </row>
-    <row r="724" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="C724" s="6"/>
+      <c r="E724" s="7">
+        <v>1</v>
+      </c>
+      <c r="F724" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G724" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H724" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="I724" s="7" t="s">
+        <v>597</v>
+      </c>
       <c r="L724" s="9"/>
     </row>
-    <row r="725" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="C725" s="6"/>
+      <c r="E725" s="7">
+        <v>2</v>
+      </c>
+      <c r="F725" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="G725" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="H725" s="7" t="s">
+        <v>517</v>
+      </c>
       <c r="L725" s="9"/>
     </row>
-    <row r="726" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="C726" s="6"/>
+      <c r="E726" s="7">
+        <v>3</v>
+      </c>
+      <c r="F726" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="G726" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="H726" s="7" t="s">
+        <v>517</v>
+      </c>
       <c r="L726" s="9"/>
     </row>
-    <row r="727" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="C727" s="6"/>
+      <c r="E727" s="7">
+        <v>4</v>
+      </c>
+      <c r="F727" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="G727" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="H727" s="7" t="s">
+        <v>517</v>
+      </c>
       <c r="L727" s="9"/>
     </row>
-    <row r="728" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L728" s="9"/>
-    </row>
-    <row r="729" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="C728" s="6"/>
+      <c r="E728" s="7">
+        <v>5</v>
+      </c>
+      <c r="F728" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="G728" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="H728" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="K728" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="L728" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="729" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C729" s="6"/>
       <c r="L729" s="9"/>
     </row>
-    <row r="730" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A730" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="B730" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C730" s="6"/>
+      <c r="D730" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="E730" s="7">
+        <v>1</v>
+      </c>
+      <c r="F730" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="G730" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H730" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="I730" s="32" t="s">
+        <v>589</v>
+      </c>
       <c r="L730" s="9"/>
     </row>
-    <row r="731" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="C731" s="6"/>
+      <c r="E731" s="7">
+        <v>2</v>
+      </c>
+      <c r="F731" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="G731" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="H731" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="I731" s="7" t="s">
+        <v>597</v>
+      </c>
       <c r="L731" s="9"/>
     </row>
-    <row r="732" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="C732" s="6"/>
+      <c r="E732" s="7">
+        <v>3</v>
+      </c>
+      <c r="F732" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="G732" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="H732" s="7" t="s">
+        <v>517</v>
+      </c>
       <c r="L732" s="9"/>
     </row>
-    <row r="733" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="C733" s="6"/>
+      <c r="E733" s="7">
+        <v>4</v>
+      </c>
+      <c r="F733" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="G733" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H733" s="7" t="s">
+        <v>517</v>
+      </c>
       <c r="L733" s="9"/>
     </row>
-    <row r="734" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C734" s="6"/>
+      <c r="E734" s="7">
+        <v>5</v>
+      </c>
+      <c r="F734" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="G734" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="H734" s="7" t="s">
+        <v>517</v>
+      </c>
       <c r="L734" s="9"/>
     </row>
-    <row r="735" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L735" s="9"/>
-    </row>
-    <row r="736" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="C735" s="6"/>
+      <c r="E735" s="7">
+        <v>6</v>
+      </c>
+      <c r="F735" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="G735" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="H735" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="K735" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="L735" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="736" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C736" s="6"/>
       <c r="L736" s="9"/>
+    </row>
+    <row r="737" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A737" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="B737" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C737" s="6"/>
+      <c r="D737" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="F737" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="H737" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="I737" s="32" t="s">
+        <v>589</v>
+      </c>
+      <c r="L737" s="9"/>
+    </row>
+    <row r="738" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C738" s="6"/>
+      <c r="E738" s="7">
+        <v>1</v>
+      </c>
+      <c r="F738" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G738" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H738" s="7" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="739" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C739" s="6"/>
+      <c r="E739" s="7">
+        <v>2</v>
+      </c>
+      <c r="F739" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="G739" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="H739" s="7" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="740" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C740" s="6"/>
+      <c r="E740" s="7">
+        <v>3</v>
+      </c>
+      <c r="F740" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="G740" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="H740" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="I740" s="7" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="741" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C741" s="6"/>
+      <c r="E741" s="7">
+        <v>4</v>
+      </c>
+      <c r="F741" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="G741" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H741" s="7" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="742" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C742" s="6"/>
+      <c r="E742" s="7">
+        <v>5</v>
+      </c>
+      <c r="F742" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="G742" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="H742" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="K742" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="L742" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="743" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C743" s="6"/>
+    </row>
+    <row r="744" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A744" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="B744" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C744" s="6"/>
+      <c r="D744" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="F744" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H744" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="I744" s="32" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="745" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C745" s="6"/>
+      <c r="E745" s="7">
+        <v>1</v>
+      </c>
+      <c r="F745" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G745" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H745" s="7" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="746" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C746" s="6"/>
+      <c r="E746" s="7">
+        <v>2</v>
+      </c>
+      <c r="F746" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="G746" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="H746" s="7" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="747" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="C747" s="6"/>
+      <c r="E747" s="7">
+        <v>3</v>
+      </c>
+      <c r="F747" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="G747" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="H747" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="K747" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="L747" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M747" s="6" t="s">
+        <v>624</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -15109,26 +15830,31 @@
     <mergeCell ref="R1:S1"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K349 J350:J359 C674 C718 K353 K360:K487 K494 K501 K508 K514 K522 K531 K538:K540 K545 K551 K557 K563 K570 K577 K584 K593 K600 K613 K626 K635 C2:C664 K644 K652 K660 K672 K681" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K349 J350:J359 C674 K609 K353 K360:K487 K494 K501 K508 K514 K522 K531 K538:K540 K545 K551 K557 K563 K570 K577 K584 K593 K600 K613 K626 K635 C2:C664 K644 K652 K660 K672 K680 K690 K698 K706 K715 C718 K721 K728 K735 K742 K747" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C665:C673 C675:C717 C719:C732" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C665:C673 C675:C717 C719:C731" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Parvathy P, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B59 B14 B25 B32 B45 B72 B82 B95 B108 B122 B136 B149 B163 B178 B192 B206 B221 B234 B247 B260 B273 B287 B301 B312 B323 B336 B348 B350:B359 B364 B374 B384 B393 B402 B412 B421 B430 B438 B446 B454 B461 B468 B475 B482 B489 B496 B504 B510 B518 B526 B533 B542 B548 B554 B560 B566 B572 B579 B586 B595 B602 B611 B620 B629 B638 B646 B655 B662 B674 B683 B693 B700 B709 B718" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L349 K350:K352 K354:K359 L360:L736" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L349 K350:K352 K354:K359 L360:L680 L682:L737 L742 L747" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K488:K493 K495:K500 K502:K507 K509:K513 K515:K521 K523:K530 K532:K537 K541:K544 K546:K551 K553:K691" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K488:K493 K495:K500 K502:K507 K509:K513 K515:K521 K523:K530 K532:K537 K541:K544 K546:K551 K715 K682:K691 K698 K706 K553:K680 K721 K728 K735 K742 K747" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I718" r:id="rId2" display="http://mediwarecloud.com/" xr:uid="{5DC0C07D-08A5-4C35-865C-70475B06F932}"/>
+    <hyperlink ref="I723" r:id="rId3" display="http://mediwarecloud.com/" xr:uid="{75B808F3-BA10-4D7B-943C-839C078A5A29}"/>
+    <hyperlink ref="I730" r:id="rId4" display="http://mediwarecloud.com/" xr:uid="{EE55937C-DB42-477A-832D-F8431E79B383}"/>
+    <hyperlink ref="I737" r:id="rId5" display="http://mediwarecloud.com/" xr:uid="{282D0B38-0EB7-4460-9F7F-5C86BA05160A}"/>
+    <hyperlink ref="I744" r:id="rId6" display="http://mediwarecloud.com/" xr:uid="{5D083B90-CE88-41D8-88C0-C19F4BBBA3D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/Test Execution/Nithya/Test Case- Lab & General Billing_copy.xlsx
+++ b/Test Execution/Nithya/Test Case- Lab & General Billing_copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mediware\Mediware-Repository\Test Execution\Nithya\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99074527-978A-4CBF-A62C-99EEA71959A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C042BF1-A895-4FFE-8A6D-D7137B142B2A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2570" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2571" uniqueCount="626">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -2704,10 +2704,13 @@
     <t>While clicking on Print button it is not navigate to printer page</t>
   </si>
   <si>
-    <t>Mismatching the  count showing in Summary information and Total Bills Summary</t>
-  </si>
-  <si>
-    <t>EQ1-I392</t>
+    <t>EQ1-I396</t>
+  </si>
+  <si>
+    <t>Mismatching the  count showing in Summary information and Total Bills Summary. Spelling mistake in Today's Bills</t>
+  </si>
+  <si>
+    <t>EQ1-I392,EQ1-I398</t>
   </si>
 </sst>
 </file>
@@ -2928,13 +2931,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3253,8 +3256,8 @@
   <dimension ref="A1:S747"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A741" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N747" sqref="N747"/>
+      <pane ySplit="1" topLeftCell="A744" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M747" sqref="M747"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3315,14 +3318,14 @@
       <c r="M1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="30"/>
-      <c r="R1" s="31" t="s">
+      <c r="P1" s="31"/>
+      <c r="R1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="31"/>
+      <c r="S1" s="32"/>
     </row>
     <row r="2" spans="1:19" s="10" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -3465,7 +3468,7 @@
       </c>
       <c r="S5" s="14">
         <f>COUNTA(M:M)-1</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="60" x14ac:dyDescent="0.25">
@@ -15344,7 +15347,7 @@
       <c r="H718" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="I718" s="32" t="s">
+      <c r="I718" s="30" t="s">
         <v>589</v>
       </c>
       <c r="L718" s="9"/>
@@ -15381,7 +15384,7 @@
       </c>
       <c r="L720" s="9"/>
     </row>
-    <row r="721" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="C721" s="6"/>
       <c r="E721" s="7">
         <v>3</v>
@@ -15402,11 +15405,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="722" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C722" s="6"/>
       <c r="L722" s="9"/>
     </row>
-    <row r="723" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A723" s="7" t="s">
         <v>594</v>
       </c>
@@ -15423,12 +15426,12 @@
       <c r="H723" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="I723" s="32" t="s">
+      <c r="I723" s="30" t="s">
         <v>589</v>
       </c>
       <c r="L723" s="9"/>
     </row>
-    <row r="724" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C724" s="6"/>
       <c r="E724" s="7">
         <v>1</v>
@@ -15447,7 +15450,7 @@
       </c>
       <c r="L724" s="9"/>
     </row>
-    <row r="725" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C725" s="6"/>
       <c r="E725" s="7">
         <v>2</v>
@@ -15463,7 +15466,7 @@
       </c>
       <c r="L725" s="9"/>
     </row>
-    <row r="726" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C726" s="6"/>
       <c r="E726" s="7">
         <v>3</v>
@@ -15479,7 +15482,7 @@
       </c>
       <c r="L726" s="9"/>
     </row>
-    <row r="727" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C727" s="6"/>
       <c r="E727" s="7">
         <v>4</v>
@@ -15495,7 +15498,7 @@
       </c>
       <c r="L727" s="9"/>
     </row>
-    <row r="728" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C728" s="6"/>
       <c r="E728" s="7">
         <v>5</v>
@@ -15516,11 +15519,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="729" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C729" s="6"/>
       <c r="L729" s="9"/>
     </row>
-    <row r="730" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A730" s="7" t="s">
         <v>603</v>
       </c>
@@ -15543,12 +15546,12 @@
       <c r="H730" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="I730" s="32" t="s">
+      <c r="I730" s="30" t="s">
         <v>589</v>
       </c>
       <c r="L730" s="9"/>
     </row>
-    <row r="731" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C731" s="6"/>
       <c r="E731" s="7">
         <v>2</v>
@@ -15567,7 +15570,7 @@
       </c>
       <c r="L731" s="9"/>
     </row>
-    <row r="732" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C732" s="6"/>
       <c r="E732" s="7">
         <v>3</v>
@@ -15583,7 +15586,7 @@
       </c>
       <c r="L732" s="9"/>
     </row>
-    <row r="733" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C733" s="6"/>
       <c r="E733" s="7">
         <v>4</v>
@@ -15599,7 +15602,7 @@
       </c>
       <c r="L733" s="9"/>
     </row>
-    <row r="734" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C734" s="6"/>
       <c r="E734" s="7">
         <v>5</v>
@@ -15615,7 +15618,7 @@
       </c>
       <c r="L734" s="9"/>
     </row>
-    <row r="735" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="C735" s="6"/>
       <c r="E735" s="7">
         <v>6</v>
@@ -15635,8 +15638,11 @@
       <c r="L735" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="736" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M735" s="6" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="736" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C736" s="6"/>
       <c r="L736" s="9"/>
     </row>
@@ -15657,7 +15663,7 @@
       <c r="H737" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="I737" s="32" t="s">
+      <c r="I737" s="30" t="s">
         <v>589</v>
       </c>
       <c r="L737" s="9"/>
@@ -15766,7 +15772,7 @@
       <c r="H744" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="I744" s="32" t="s">
+      <c r="I744" s="30" t="s">
         <v>589</v>
       </c>
     </row>
@@ -15812,7 +15818,7 @@
         <v>618</v>
       </c>
       <c r="H747" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="K747" s="5" t="s">
         <v>514</v>
@@ -15820,8 +15826,8 @@
       <c r="L747" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="M747" s="6" t="s">
-        <v>624</v>
+      <c r="M747" s="7" t="s">
+        <v>625</v>
       </c>
     </row>
   </sheetData>
